--- a/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9992500161041027</v>
+        <v>1.038429246157795</v>
       </c>
       <c r="D2">
-        <v>1.017011927818973</v>
+        <v>1.055792233351153</v>
       </c>
       <c r="E2">
-        <v>1.006744497236646</v>
+        <v>1.049551047553946</v>
       </c>
       <c r="F2">
-        <v>1.011470592291234</v>
+        <v>1.061547137623122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04484988784598</v>
+        <v>1.067431349230324</v>
       </c>
       <c r="J2">
-        <v>1.021453182224489</v>
+        <v>1.059518302007264</v>
       </c>
       <c r="K2">
-        <v>1.028239239793185</v>
+        <v>1.066525393768426</v>
       </c>
       <c r="L2">
-        <v>1.01811066343022</v>
+        <v>1.060360665545307</v>
       </c>
       <c r="M2">
-        <v>1.022772403506863</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.072210786300609</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006615122718748</v>
+        <v>1.044950506419716</v>
       </c>
       <c r="D3">
-        <v>1.022511469348534</v>
+        <v>1.060992754985748</v>
       </c>
       <c r="E3">
-        <v>1.013011005631427</v>
+        <v>1.055072892340283</v>
       </c>
       <c r="F3">
-        <v>1.018690790180364</v>
+        <v>1.067207513807026</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047562635192112</v>
+        <v>1.069899971724688</v>
       </c>
       <c r="J3">
-        <v>1.026927063000444</v>
+        <v>1.064286514018792</v>
       </c>
       <c r="K3">
-        <v>1.032864191566392</v>
+        <v>1.070900458728976</v>
       </c>
       <c r="L3">
-        <v>1.023480071530608</v>
+        <v>1.065046454477809</v>
       </c>
       <c r="M3">
-        <v>1.029089976508163</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.077047043498551</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011236228099382</v>
+        <v>1.049061764878336</v>
       </c>
       <c r="D4">
-        <v>1.025964042624075</v>
+        <v>1.064273226944867</v>
       </c>
       <c r="E4">
-        <v>1.016948094610269</v>
+        <v>1.058558769458555</v>
       </c>
       <c r="F4">
-        <v>1.023227801825722</v>
+        <v>1.070780714227858</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049250464073154</v>
+        <v>1.071443629259304</v>
       </c>
       <c r="J4">
-        <v>1.030356812673911</v>
+        <v>1.067288603942281</v>
       </c>
       <c r="K4">
-        <v>1.03575888690411</v>
+        <v>1.073653209309894</v>
       </c>
       <c r="L4">
-        <v>1.026846185373106</v>
+        <v>1.067998305662239</v>
       </c>
       <c r="M4">
-        <v>1.033053743042633</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.080093821506959</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013146257685211</v>
+        <v>1.050765424207212</v>
       </c>
       <c r="D5">
-        <v>1.027391450295241</v>
+        <v>1.065632988828366</v>
       </c>
       <c r="E5">
-        <v>1.018576579886217</v>
+        <v>1.060004335313311</v>
       </c>
       <c r="F5">
-        <v>1.025104652335415</v>
+        <v>1.072262458627289</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049944610072825</v>
+        <v>1.07208021577575</v>
       </c>
       <c r="J5">
-        <v>1.031773220702163</v>
+        <v>1.068531631767004</v>
       </c>
       <c r="K5">
-        <v>1.036953550185417</v>
+        <v>1.074792548051301</v>
       </c>
       <c r="L5">
-        <v>1.028236742630742</v>
+        <v>1.069220921416684</v>
       </c>
       <c r="M5">
-        <v>1.034691992988938</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.081355784069636</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013465096794006</v>
+        <v>1.051050061484802</v>
       </c>
       <c r="D6">
-        <v>1.027629744196043</v>
+        <v>1.065860189485621</v>
       </c>
       <c r="E6">
-        <v>1.018848487980104</v>
+        <v>1.060245912157697</v>
       </c>
       <c r="F6">
-        <v>1.025418044156307</v>
+        <v>1.07251007942038</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050060276602289</v>
+        <v>1.072186389869126</v>
       </c>
       <c r="J6">
-        <v>1.032009587645324</v>
+        <v>1.06873924899446</v>
       </c>
       <c r="K6">
-        <v>1.037152866299398</v>
+        <v>1.074982819749472</v>
       </c>
       <c r="L6">
-        <v>1.028468820695059</v>
+        <v>1.069425152003472</v>
       </c>
       <c r="M6">
-        <v>1.034965457548174</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.081566588929803</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011261875990465</v>
+        <v>1.049084624782235</v>
       </c>
       <c r="D7">
-        <v>1.02598320856387</v>
+        <v>1.06429147102003</v>
       </c>
       <c r="E7">
-        <v>1.016969957369398</v>
+        <v>1.05857816213769</v>
       </c>
       <c r="F7">
-        <v>1.023252998010905</v>
+        <v>1.070800592389218</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049259798929062</v>
+        <v>1.071452183329661</v>
       </c>
       <c r="J7">
-        <v>1.030375837049856</v>
+        <v>1.067305287074578</v>
       </c>
       <c r="K7">
-        <v>1.035774936052183</v>
+        <v>1.073668502588185</v>
       </c>
       <c r="L7">
-        <v>1.026864860846107</v>
+        <v>1.068014713305489</v>
       </c>
       <c r="M7">
-        <v>1.033075741886048</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.080110757077208</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001770250933339</v>
+        <v>1.040656366353239</v>
       </c>
       <c r="D8">
-        <v>1.018893302790288</v>
+        <v>1.057567860499082</v>
       </c>
       <c r="E8">
-        <v>1.008887635929138</v>
+        <v>1.051435820713127</v>
       </c>
       <c r="F8">
-        <v>1.013939762072662</v>
+        <v>1.063479221481967</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045781117099086</v>
+        <v>1.068277058173118</v>
       </c>
       <c r="J8">
-        <v>1.023327226304009</v>
+        <v>1.061147532471638</v>
       </c>
       <c r="K8">
-        <v>1.029823292199355</v>
+        <v>1.068020664234009</v>
       </c>
       <c r="L8">
-        <v>1.019948549460338</v>
+        <v>1.061961379593753</v>
       </c>
       <c r="M8">
-        <v>1.024934163901402</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.073862870458241</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838405213881933</v>
+        <v>1.024913344457803</v>
       </c>
       <c r="D9">
-        <v>1.005522343232272</v>
+        <v>1.0450276698594</v>
       </c>
       <c r="E9">
-        <v>0.9936676673356994</v>
+        <v>1.038135941695463</v>
       </c>
       <c r="F9">
-        <v>0.9964056621485143</v>
+        <v>1.049845050733479</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039097256235192</v>
+        <v>1.062246812878454</v>
       </c>
       <c r="J9">
-        <v>1.00997710738377</v>
+        <v>1.049616014312174</v>
       </c>
       <c r="K9">
-        <v>1.018526455183591</v>
+        <v>1.057430131053664</v>
       </c>
       <c r="L9">
-        <v>1.006864324553934</v>
+        <v>1.050639172350949</v>
       </c>
       <c r="M9">
-        <v>1.009557325406111</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.062178067902266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9709247201475564</v>
+        <v>1.013724944268305</v>
       </c>
       <c r="D10">
-        <v>0.9959145668377647</v>
+        <v>1.036134048031076</v>
       </c>
       <c r="E10">
-        <v>0.98274375020486</v>
+        <v>1.028717206502709</v>
       </c>
       <c r="F10">
-        <v>0.9838199363575233</v>
+        <v>1.040189142685904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034210496554843</v>
+        <v>1.057897195159522</v>
       </c>
       <c r="J10">
-        <v>1.000341370281904</v>
+        <v>1.041404404396075</v>
       </c>
       <c r="K10">
-        <v>1.010357978919435</v>
+        <v>1.049880163916814</v>
       </c>
       <c r="L10">
-        <v>0.9974317216640295</v>
+        <v>1.042586624025178</v>
       </c>
       <c r="M10">
-        <v>0.9984876039489253</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.053868799854529</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9650633163116765</v>
+        <v>1.008692026702753</v>
       </c>
       <c r="D11">
-        <v>0.9915624745086391</v>
+        <v>1.032139253095601</v>
       </c>
       <c r="E11">
-        <v>0.9777977080486044</v>
+        <v>1.024489598477172</v>
       </c>
       <c r="F11">
-        <v>0.9781203670680896</v>
+        <v>1.03585502320957</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031976921009723</v>
+        <v>1.055926291443742</v>
       </c>
       <c r="J11">
-        <v>0.9959653571755266</v>
+        <v>1.03770762507871</v>
       </c>
       <c r="K11">
-        <v>1.006645283883978</v>
+        <v>1.046479497197816</v>
       </c>
       <c r="L11">
-        <v>0.9931508351435875</v>
+        <v>1.038963996920774</v>
       </c>
       <c r="M11">
-        <v>0.9934670431210324</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.050131027150539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9628417359117848</v>
+        <v>1.006792003082608</v>
       </c>
       <c r="D12">
-        <v>0.9899143913085615</v>
+        <v>1.030632156037459</v>
       </c>
       <c r="E12">
-        <v>0.9759249691270452</v>
+        <v>1.022895110891475</v>
       </c>
       <c r="F12">
-        <v>0.9759620638699765</v>
+        <v>1.034220359610412</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031128085681571</v>
+        <v>1.055180171955925</v>
       </c>
       <c r="J12">
-        <v>0.9943064221604963</v>
+        <v>1.036311669012151</v>
       </c>
       <c r="K12">
-        <v>1.005237400522599</v>
+        <v>1.045195117306883</v>
       </c>
       <c r="L12">
-        <v>0.9915284150343115</v>
+        <v>1.037596440033735</v>
       </c>
       <c r="M12">
-        <v>0.9915647521456454</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.048720060720237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9633203519196993</v>
+        <v>1.007200987599669</v>
       </c>
       <c r="D13">
-        <v>0.9902693845057288</v>
+        <v>1.030956514055179</v>
       </c>
       <c r="E13">
-        <v>0.9763283418284502</v>
+        <v>1.023238257474414</v>
       </c>
       <c r="F13">
-        <v>0.976426957730706</v>
+        <v>1.034572152505489</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031311058634364</v>
+        <v>1.055340867752874</v>
       </c>
       <c r="J13">
-        <v>0.9946638355106273</v>
+        <v>1.036612166130359</v>
       </c>
       <c r="K13">
-        <v>1.00554074318545</v>
+        <v>1.045471606700352</v>
       </c>
       <c r="L13">
-        <v>0.9918779405508785</v>
+        <v>1.03789080561663</v>
       </c>
       <c r="M13">
-        <v>0.991974551470362</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.049023767428185</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9648806106014354</v>
+        <v>1.008535607972114</v>
       </c>
       <c r="D14">
-        <v>0.9914269033794302</v>
+        <v>1.032015160470053</v>
       </c>
       <c r="E14">
-        <v>0.9776436518029</v>
+        <v>1.024358301352633</v>
       </c>
       <c r="F14">
-        <v>0.9779428252563146</v>
+        <v>1.035720417871659</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03190715693666</v>
+        <v>1.055864908848775</v>
       </c>
       <c r="J14">
-        <v>0.9958289303661777</v>
+        <v>1.037592710095256</v>
       </c>
       <c r="K14">
-        <v>1.006529511002853</v>
+        <v>1.046373771889462</v>
       </c>
       <c r="L14">
-        <v>0.9930174019276681</v>
+        <v>1.038851411575514</v>
       </c>
       <c r="M14">
-        <v>0.9933105833171155</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.0500148668514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9658359253385612</v>
+        <v>1.009353787629395</v>
       </c>
       <c r="D15">
-        <v>0.9921358250871711</v>
+        <v>1.032664294067774</v>
       </c>
       <c r="E15">
-        <v>0.9784492453148826</v>
+        <v>1.025045139851232</v>
       </c>
       <c r="F15">
-        <v>0.97887121904514</v>
+        <v>1.036424562080812</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032271841448463</v>
+        <v>1.056185899355915</v>
       </c>
       <c r="J15">
-        <v>0.9965422530479129</v>
+        <v>1.038193782336744</v>
       </c>
       <c r="K15">
-        <v>1.007134825938922</v>
+        <v>1.046926767155279</v>
       </c>
       <c r="L15">
-        <v>0.9937150907907054</v>
+        <v>1.0394403147541</v>
       </c>
       <c r="M15">
-        <v>0.9941286908671532</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.050622472052801</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9713077291743547</v>
+        <v>1.014054806000819</v>
       </c>
       <c r="D16">
-        <v>0.9961991364149506</v>
+        <v>1.036396002920478</v>
       </c>
       <c r="E16">
-        <v>0.9830671967539323</v>
+        <v>1.02899448988392</v>
       </c>
       <c r="F16">
-        <v>0.9841926298452156</v>
+        <v>1.040473411208235</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034356129121008</v>
+        <v>1.058026080044961</v>
       </c>
       <c r="J16">
-        <v>1.000627262809413</v>
+        <v>1.041646641135644</v>
       </c>
       <c r="K16">
-        <v>1.010600476764573</v>
+        <v>1.050102963020765</v>
       </c>
       <c r="L16">
-        <v>0.997711460488553</v>
+        <v>1.042824055917891</v>
       </c>
       <c r="M16">
-        <v>0.9988157429068905</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.054113786250562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9746654217811811</v>
+        <v>1.016951685310198</v>
       </c>
       <c r="D17">
-        <v>0.9986947826480587</v>
+        <v>1.038697195329983</v>
       </c>
       <c r="E17">
-        <v>0.9859040339601064</v>
+        <v>1.031430682467473</v>
       </c>
       <c r="F17">
-        <v>0.9874612605456105</v>
+        <v>1.042970968877385</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035631057065058</v>
+        <v>1.059156350754767</v>
       </c>
       <c r="J17">
-        <v>1.003133230775903</v>
+        <v>1.043773667957006</v>
       </c>
       <c r="K17">
-        <v>1.012725735820762</v>
+        <v>1.052059116654711</v>
       </c>
       <c r="L17">
-        <v>1.000163814587864</v>
+        <v>1.044909182142595</v>
       </c>
       <c r="M17">
-        <v>1.001692770078755</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.056265295970723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765982723640318</v>
+        <v>1.018623388006056</v>
       </c>
       <c r="D18">
-        <v>1.000132139051521</v>
+        <v>1.040025687519328</v>
       </c>
       <c r="E18">
-        <v>0.987538112049319</v>
+        <v>1.032837400579789</v>
       </c>
       <c r="F18">
-        <v>0.9893439629569528</v>
+        <v>1.044413115104953</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036363469434363</v>
+        <v>1.0598072420503</v>
       </c>
       <c r="J18">
-        <v>1.004575482253463</v>
+        <v>1.045000830046193</v>
       </c>
       <c r="K18">
-        <v>1.013948591993083</v>
+        <v>1.053187528824006</v>
       </c>
       <c r="L18">
-        <v>1.00157547786271</v>
+        <v>1.046112408907667</v>
       </c>
       <c r="M18">
-        <v>1.003349204014149</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.05750686163985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9772530895152198</v>
+        <v>1.019190408247085</v>
       </c>
       <c r="D19">
-        <v>1.000619210627847</v>
+        <v>1.040476383348078</v>
       </c>
       <c r="E19">
-        <v>0.9880918842507135</v>
+        <v>1.033314684440434</v>
       </c>
       <c r="F19">
-        <v>0.9899819771917464</v>
+        <v>1.044902418257382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036611341025749</v>
+        <v>1.060027784008119</v>
       </c>
       <c r="J19">
-        <v>1.005064037381544</v>
+        <v>1.045417017499925</v>
       </c>
       <c r="K19">
-        <v>1.014362778152544</v>
+        <v>1.053570196672758</v>
       </c>
       <c r="L19">
-        <v>1.002053716290892</v>
+        <v>1.046520518829081</v>
       </c>
       <c r="M19">
-        <v>1.003910419267216</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.057927980606062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9743078519229126</v>
+        <v>1.016642754958564</v>
       </c>
       <c r="D20">
-        <v>0.9984289358570424</v>
+        <v>1.038451733214087</v>
       </c>
       <c r="E20">
-        <v>0.9856018202628464</v>
+        <v>1.031170790293436</v>
       </c>
       <c r="F20">
-        <v>0.9871130578135895</v>
+        <v>1.042704530850178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035495441442507</v>
+        <v>1.059035955986132</v>
       </c>
       <c r="J20">
-        <v>1.002866394258791</v>
+        <v>1.043546865226473</v>
       </c>
       <c r="K20">
-        <v>1.012499466902036</v>
+        <v>1.051850551120391</v>
       </c>
       <c r="L20">
-        <v>0.9999026588952884</v>
+        <v>1.044686822326943</v>
       </c>
       <c r="M20">
-        <v>1.001386357832394</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.056035853572688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.964422413828683</v>
+        <v>1.00814345915225</v>
       </c>
       <c r="D21">
-        <v>0.9910869365836691</v>
+        <v>1.031704071472531</v>
       </c>
       <c r="E21">
-        <v>0.9772573345754797</v>
+        <v>1.024029158375661</v>
       </c>
       <c r="F21">
-        <v>0.9774976103530123</v>
+        <v>1.035382981630182</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03173216372345</v>
+        <v>1.055710986976796</v>
       </c>
       <c r="J21">
-        <v>0.9954867886113679</v>
+        <v>1.037304607719723</v>
       </c>
       <c r="K21">
-        <v>1.006239160336598</v>
+        <v>1.04610870508828</v>
       </c>
       <c r="L21">
-        <v>0.9926827750908273</v>
+        <v>1.038569156280966</v>
       </c>
       <c r="M21">
-        <v>0.9929182171305283</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.049723649988362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9579477798300294</v>
+        <v>1.002621401788659</v>
       </c>
       <c r="D22">
-        <v>0.9862867356414718</v>
+        <v>1.027326070210324</v>
       </c>
       <c r="E22">
-        <v>0.9718032227361684</v>
+        <v>1.019398112039176</v>
       </c>
       <c r="F22">
-        <v>0.9712112403287437</v>
+        <v>1.030635245169618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029254125712359</v>
+        <v>1.053538713004516</v>
       </c>
       <c r="J22">
-        <v>0.9906514466832503</v>
+        <v>1.0332469683826</v>
       </c>
       <c r="K22">
-        <v>1.002134839366497</v>
+        <v>1.042374957133791</v>
       </c>
       <c r="L22">
-        <v>0.9879547508565893</v>
+        <v>1.03459484039722</v>
       </c>
       <c r="M22">
-        <v>0.9873754254682129</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.045623298331576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9614061732019337</v>
+        <v>1.005566472426538</v>
       </c>
       <c r="D23">
-        <v>0.9888498534199532</v>
+        <v>1.029660370365637</v>
       </c>
       <c r="E23">
-        <v>0.9747153861349781</v>
+        <v>1.021867097509621</v>
       </c>
       <c r="F23">
-        <v>0.9745679545815963</v>
+        <v>1.033166442991913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03057895306668</v>
+        <v>1.05469834773238</v>
       </c>
       <c r="J23">
-        <v>0.9932343553836063</v>
+        <v>1.035411179007779</v>
       </c>
       <c r="K23">
-        <v>1.004327463117678</v>
+        <v>1.044366537156608</v>
       </c>
       <c r="L23">
-        <v>0.9904800760624113</v>
+        <v>1.036714383897874</v>
       </c>
       <c r="M23">
-        <v>0.9903356968955661</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.047810023318213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974469501272251</v>
+        <v>1.016782402736405</v>
       </c>
       <c r="D24">
-        <v>0.9985491169680996</v>
+        <v>1.038562689361863</v>
       </c>
       <c r="E24">
-        <v>0.9857384410565727</v>
+        <v>1.031288268355114</v>
       </c>
       <c r="F24">
-        <v>0.9872704690229094</v>
+        <v>1.042824967826467</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035556754900856</v>
+        <v>1.059090383019351</v>
       </c>
       <c r="J24">
-        <v>1.002987026048021</v>
+        <v>1.043649389207434</v>
       </c>
       <c r="K24">
-        <v>1.012601759735914</v>
+        <v>1.051944831672495</v>
       </c>
       <c r="L24">
-        <v>1.000020721658812</v>
+        <v>1.044787337191291</v>
       </c>
       <c r="M24">
-        <v>1.001524879114576</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.056139569926989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9886331455576595</v>
+        <v>1.029098032582192</v>
       </c>
       <c r="D25">
-        <v>1.00909301313026</v>
+        <v>1.048358272860272</v>
       </c>
       <c r="E25">
-        <v>0.9977297678854231</v>
+        <v>1.041665916205429</v>
       </c>
       <c r="F25">
-        <v>1.001085270246593</v>
+        <v>1.053463839466574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040896442556449</v>
+        <v>1.063860937314592</v>
       </c>
       <c r="J25">
-        <v>1.013549199935325</v>
+        <v>1.052684303174337</v>
       </c>
       <c r="K25">
-        <v>1.021551792864569</v>
+        <v>1.06024956153094</v>
       </c>
       <c r="L25">
-        <v>1.010363428809428</v>
+        <v>1.053650108285763</v>
       </c>
       <c r="M25">
-        <v>1.013666762121367</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.065285251662227</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038429246157795</v>
+        <v>0.996830180030158</v>
       </c>
       <c r="D2">
-        <v>1.055792233351153</v>
+        <v>1.018819377033408</v>
       </c>
       <c r="E2">
-        <v>1.049551047553946</v>
+        <v>1.003683609329757</v>
       </c>
       <c r="F2">
-        <v>1.061547137623122</v>
+        <v>1.023002901855512</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067431349230324</v>
+        <v>1.043383664774351</v>
       </c>
       <c r="J2">
-        <v>1.059518302007264</v>
+        <v>1.019106114993871</v>
       </c>
       <c r="K2">
-        <v>1.066525393768426</v>
+        <v>1.030022609188463</v>
       </c>
       <c r="L2">
-        <v>1.060360665545307</v>
+        <v>1.015091863067819</v>
       </c>
       <c r="M2">
-        <v>1.072210786300609</v>
+        <v>1.034150808082483</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044950506419716</v>
+        <v>1.001180376782239</v>
       </c>
       <c r="D3">
-        <v>1.060992754985748</v>
+        <v>1.021949459150958</v>
       </c>
       <c r="E3">
-        <v>1.055072892340283</v>
+        <v>1.00714282825824</v>
       </c>
       <c r="F3">
-        <v>1.067207513807026</v>
+        <v>1.026678330737054</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069899971724688</v>
+        <v>1.044325247271077</v>
       </c>
       <c r="J3">
-        <v>1.064286514018792</v>
+        <v>1.021638915176472</v>
       </c>
       <c r="K3">
-        <v>1.070900458728976</v>
+        <v>1.032308989025883</v>
       </c>
       <c r="L3">
-        <v>1.065046454477809</v>
+        <v>1.017685123831344</v>
       </c>
       <c r="M3">
-        <v>1.077047043498551</v>
+        <v>1.036980867983013</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049061764878336</v>
+        <v>1.003941192729283</v>
       </c>
       <c r="D4">
-        <v>1.064273226944867</v>
+        <v>1.02393847615091</v>
       </c>
       <c r="E4">
-        <v>1.058558769458555</v>
+        <v>1.009344366172447</v>
       </c>
       <c r="F4">
-        <v>1.070780714227858</v>
+        <v>1.029015345255645</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071443629259304</v>
+        <v>1.04491277429006</v>
       </c>
       <c r="J4">
-        <v>1.067288603942281</v>
+        <v>1.023244616883428</v>
       </c>
       <c r="K4">
-        <v>1.073653209309894</v>
+        <v>1.033756320963118</v>
       </c>
       <c r="L4">
-        <v>1.067998305662239</v>
+        <v>1.019331306113937</v>
       </c>
       <c r="M4">
-        <v>1.080093821506959</v>
+        <v>1.038775752222588</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050765424207212</v>
+        <v>1.005089339609894</v>
       </c>
       <c r="D5">
-        <v>1.065632988828366</v>
+        <v>1.024766203862156</v>
       </c>
       <c r="E5">
-        <v>1.060004335313311</v>
+        <v>1.010261362239702</v>
       </c>
       <c r="F5">
-        <v>1.072262458627289</v>
+        <v>1.029988254027539</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07208021577575</v>
+        <v>1.045154660110087</v>
       </c>
       <c r="J5">
-        <v>1.068531631767004</v>
+        <v>1.023911936355746</v>
       </c>
       <c r="K5">
-        <v>1.074792548051301</v>
+        <v>1.034357291941465</v>
       </c>
       <c r="L5">
-        <v>1.069220921416684</v>
+        <v>1.020015964861141</v>
       </c>
       <c r="M5">
-        <v>1.081355784069636</v>
+        <v>1.039521858320942</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051050061484802</v>
+        <v>1.00528139792163</v>
       </c>
       <c r="D6">
-        <v>1.065860189485621</v>
+        <v>1.02490469420186</v>
       </c>
       <c r="E6">
-        <v>1.060245912157697</v>
+        <v>1.010414837636675</v>
       </c>
       <c r="F6">
-        <v>1.07251007942038</v>
+        <v>1.030151056835514</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072186389869126</v>
+        <v>1.045194976768507</v>
       </c>
       <c r="J6">
-        <v>1.06873924899446</v>
+        <v>1.024023536109248</v>
       </c>
       <c r="K6">
-        <v>1.074982819749472</v>
+        <v>1.034457764181855</v>
       </c>
       <c r="L6">
-        <v>1.069425152003472</v>
+        <v>1.020130494682785</v>
       </c>
       <c r="M6">
-        <v>1.081566588929803</v>
+        <v>1.039646643305391</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049084624782235</v>
+        <v>1.003956582872854</v>
       </c>
       <c r="D7">
-        <v>1.06429147102003</v>
+        <v>1.023949569189668</v>
       </c>
       <c r="E7">
-        <v>1.05857816213769</v>
+        <v>1.009356652273323</v>
       </c>
       <c r="F7">
-        <v>1.070800592389218</v>
+        <v>1.029028382534583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071452183329661</v>
+        <v>1.044916026339352</v>
       </c>
       <c r="J7">
-        <v>1.067305287074578</v>
+        <v>1.02325356366845</v>
       </c>
       <c r="K7">
-        <v>1.073668502588185</v>
+        <v>1.033764380328703</v>
       </c>
       <c r="L7">
-        <v>1.068014713305489</v>
+        <v>1.019340483330003</v>
       </c>
       <c r="M7">
-        <v>1.080110757077208</v>
+        <v>1.038785754672872</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040656366353239</v>
+        <v>0.9983118128992003</v>
       </c>
       <c r="D8">
-        <v>1.057567860499082</v>
+        <v>1.019884883769828</v>
       </c>
       <c r="E8">
-        <v>1.051435820713127</v>
+        <v>1.004860463384559</v>
       </c>
       <c r="F8">
-        <v>1.063479221481967</v>
+        <v>1.024253752441961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068277058173118</v>
+        <v>1.043706436436527</v>
       </c>
       <c r="J8">
-        <v>1.061147532471638</v>
+        <v>1.019969099467541</v>
       </c>
       <c r="K8">
-        <v>1.068020664234009</v>
+        <v>1.030802073366161</v>
       </c>
       <c r="L8">
-        <v>1.061961379593753</v>
+        <v>1.015974996673661</v>
       </c>
       <c r="M8">
-        <v>1.073862870458241</v>
+        <v>1.035114915314121</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024913344457803</v>
+        <v>0.9879301700846816</v>
       </c>
       <c r="D9">
-        <v>1.0450276698594</v>
+        <v>1.012432208659239</v>
       </c>
       <c r="E9">
-        <v>1.038135941695463</v>
+        <v>0.9966424047308168</v>
       </c>
       <c r="F9">
-        <v>1.049845050733479</v>
+        <v>1.015510308368134</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062246812878454</v>
+        <v>1.041404019760395</v>
       </c>
       <c r="J9">
-        <v>1.049616014312174</v>
+        <v>1.013916464829623</v>
       </c>
       <c r="K9">
-        <v>1.057430131053664</v>
+        <v>1.025326751502653</v>
       </c>
       <c r="L9">
-        <v>1.050639172350949</v>
+        <v>1.009790192482219</v>
       </c>
       <c r="M9">
-        <v>1.062178067902266</v>
+        <v>1.028356655809013</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013724944268305</v>
+        <v>0.9806857824710324</v>
       </c>
       <c r="D10">
-        <v>1.036134048031076</v>
+        <v>1.007251320005825</v>
       </c>
       <c r="E10">
-        <v>1.028717206502709</v>
+        <v>0.9909455939022067</v>
       </c>
       <c r="F10">
-        <v>1.040189142685904</v>
+        <v>1.009438650311148</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057897195159522</v>
+        <v>1.039747503190196</v>
       </c>
       <c r="J10">
-        <v>1.041404404396075</v>
+        <v>1.009687226550953</v>
       </c>
       <c r="K10">
-        <v>1.049880163916814</v>
+        <v>1.021490872370126</v>
       </c>
       <c r="L10">
-        <v>1.042586624025178</v>
+        <v>1.005480275745226</v>
       </c>
       <c r="M10">
-        <v>1.053868799854529</v>
+        <v>1.023639552858069</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008692026702753</v>
+        <v>0.9774647479714572</v>
       </c>
       <c r="D11">
-        <v>1.032139253095601</v>
+        <v>1.004953396818132</v>
       </c>
       <c r="E11">
-        <v>1.024489598477172</v>
+        <v>0.9884223770559957</v>
       </c>
       <c r="F11">
-        <v>1.03585502320957</v>
+        <v>1.0067469946032</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055926291443742</v>
+        <v>1.038999781398843</v>
       </c>
       <c r="J11">
-        <v>1.03770762507871</v>
+        <v>1.007806028048598</v>
       </c>
       <c r="K11">
-        <v>1.046479497197816</v>
+        <v>1.019782500023126</v>
       </c>
       <c r="L11">
-        <v>1.038963996920774</v>
+        <v>1.003565983789228</v>
       </c>
       <c r="M11">
-        <v>1.050131027150539</v>
+        <v>1.021542784369263</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006792003082608</v>
+        <v>0.9762549838321679</v>
       </c>
       <c r="D12">
-        <v>1.030632156037459</v>
+        <v>1.004091269191258</v>
       </c>
       <c r="E12">
-        <v>1.022895110891475</v>
+        <v>0.9874762302822913</v>
       </c>
       <c r="F12">
-        <v>1.034220359610412</v>
+        <v>1.005737334984252</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055180171955925</v>
+        <v>1.03871732471478</v>
       </c>
       <c r="J12">
-        <v>1.036311669012151</v>
+        <v>1.007099417172781</v>
       </c>
       <c r="K12">
-        <v>1.045195117306883</v>
+        <v>1.019140504463598</v>
       </c>
       <c r="L12">
-        <v>1.037596440033735</v>
+        <v>1.002847364530992</v>
       </c>
       <c r="M12">
-        <v>1.048720060720237</v>
+        <v>1.020755436036995</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007200987599669</v>
+        <v>0.9765150969678241</v>
       </c>
       <c r="D13">
-        <v>1.030956514055179</v>
+        <v>1.004276592951354</v>
       </c>
       <c r="E13">
-        <v>1.023238257474414</v>
+        <v>0.9876795924391953</v>
       </c>
       <c r="F13">
-        <v>1.034572152505489</v>
+        <v>1.0059543641649</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055340867752874</v>
+        <v>1.038778128655523</v>
       </c>
       <c r="J13">
-        <v>1.036612166130359</v>
+        <v>1.007251348728264</v>
       </c>
       <c r="K13">
-        <v>1.045471606700352</v>
+        <v>1.0192785560597</v>
       </c>
       <c r="L13">
-        <v>1.03789080561663</v>
+        <v>1.003001858946434</v>
       </c>
       <c r="M13">
-        <v>1.049023767428185</v>
+        <v>1.020924716412209</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008535607972114</v>
+        <v>0.9773650245011958</v>
       </c>
       <c r="D14">
-        <v>1.032015160470053</v>
+        <v>1.004882310315215</v>
       </c>
       <c r="E14">
-        <v>1.024358301352633</v>
+        <v>0.9883443526412058</v>
       </c>
       <c r="F14">
-        <v>1.035720417871659</v>
+        <v>1.006663739676988</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055864908848775</v>
+        <v>1.038976530597803</v>
       </c>
       <c r="J14">
-        <v>1.037592710095256</v>
+        <v>1.007747781623487</v>
       </c>
       <c r="K14">
-        <v>1.046373771889462</v>
+        <v>1.019729585884071</v>
       </c>
       <c r="L14">
-        <v>1.038851411575514</v>
+        <v>1.003506738908434</v>
       </c>
       <c r="M14">
-        <v>1.0500148668514</v>
+        <v>1.021477877823712</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009353787629395</v>
+        <v>0.9778869055355598</v>
       </c>
       <c r="D15">
-        <v>1.032664294067774</v>
+        <v>1.005254364551943</v>
       </c>
       <c r="E15">
-        <v>1.025045139851232</v>
+        <v>0.9887527391638028</v>
       </c>
       <c r="F15">
-        <v>1.036424562080812</v>
+        <v>1.007099488839468</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056185899355915</v>
+        <v>1.039098142662474</v>
       </c>
       <c r="J15">
-        <v>1.038193782336744</v>
+        <v>1.008052599216803</v>
       </c>
       <c r="K15">
-        <v>1.046926767155279</v>
+        <v>1.020006486183977</v>
       </c>
       <c r="L15">
-        <v>1.0394403147541</v>
+        <v>1.003816798885624</v>
       </c>
       <c r="M15">
-        <v>1.050622472052801</v>
+        <v>1.021817559103056</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014054806000819</v>
+        <v>0.9808977213216639</v>
       </c>
       <c r="D16">
-        <v>1.036396002920478</v>
+        <v>1.007402644178271</v>
       </c>
       <c r="E16">
-        <v>1.02899448988392</v>
+        <v>0.9911118259166951</v>
       </c>
       <c r="F16">
-        <v>1.040473411208235</v>
+        <v>1.009615929723093</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058026080044961</v>
+        <v>1.039796473423861</v>
       </c>
       <c r="J16">
-        <v>1.041646641135644</v>
+        <v>1.0098109944527</v>
       </c>
       <c r="K16">
-        <v>1.050102963020765</v>
+        <v>1.02160322675238</v>
       </c>
       <c r="L16">
-        <v>1.042824055917891</v>
+        <v>1.005606279353344</v>
       </c>
       <c r="M16">
-        <v>1.054113786250562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.023777535034798</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016951685310198</v>
+        <v>0.9827633243047218</v>
       </c>
       <c r="D17">
-        <v>1.038697195329983</v>
+        <v>1.008735334583412</v>
       </c>
       <c r="E17">
-        <v>1.031430682467473</v>
+        <v>0.9925762080423615</v>
       </c>
       <c r="F17">
-        <v>1.042970968877385</v>
+        <v>1.011177357112819</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059156350754767</v>
+        <v>1.040226268016741</v>
       </c>
       <c r="J17">
-        <v>1.043773667957006</v>
+        <v>1.010900385742835</v>
       </c>
       <c r="K17">
-        <v>1.052059116654711</v>
+        <v>1.022591915887975</v>
       </c>
       <c r="L17">
-        <v>1.044909182142595</v>
+        <v>1.006715667462001</v>
       </c>
       <c r="M17">
-        <v>1.056265295970723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.024992204521388</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018623388006056</v>
+        <v>0.9838434265774946</v>
       </c>
       <c r="D18">
-        <v>1.040025687519328</v>
+        <v>1.009507432501658</v>
       </c>
       <c r="E18">
-        <v>1.032837400579789</v>
+        <v>0.9934249401406299</v>
       </c>
       <c r="F18">
-        <v>1.044413115104953</v>
+        <v>1.012082104720543</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0598072420503</v>
+        <v>1.040474033366523</v>
       </c>
       <c r="J18">
-        <v>1.045000830046193</v>
+        <v>1.011531018526258</v>
       </c>
       <c r="K18">
-        <v>1.053187528824006</v>
+        <v>1.023164048764152</v>
       </c>
       <c r="L18">
-        <v>1.046112408907667</v>
+        <v>1.007358141127339</v>
       </c>
       <c r="M18">
-        <v>1.05750686163985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.02569549410861</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019190408247085</v>
+        <v>0.9842103643376738</v>
       </c>
       <c r="D19">
-        <v>1.040476383348078</v>
+        <v>1.009769820634852</v>
       </c>
       <c r="E19">
-        <v>1.033314684440434</v>
+        <v>0.993713429595218</v>
       </c>
       <c r="F19">
-        <v>1.044902418257382</v>
+        <v>1.012389594835367</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060027784008119</v>
+        <v>1.040558022842987</v>
       </c>
       <c r="J19">
-        <v>1.045417017499925</v>
+        <v>1.01174524572498</v>
       </c>
       <c r="K19">
-        <v>1.053570196672758</v>
+        <v>1.023358368065438</v>
       </c>
       <c r="L19">
-        <v>1.046520518829081</v>
+        <v>1.007576435581822</v>
       </c>
       <c r="M19">
-        <v>1.057927980606062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.025934425340358</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016642754958564</v>
+        <v>0.9825640025193342</v>
       </c>
       <c r="D20">
-        <v>1.038451733214087</v>
+        <v>1.008592893955053</v>
       </c>
       <c r="E20">
-        <v>1.031170790293436</v>
+        <v>0.9924196570442972</v>
       </c>
       <c r="F20">
-        <v>1.042704530850178</v>
+        <v>1.011010455223209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059035955986132</v>
+        <v>1.040180458860888</v>
       </c>
       <c r="J20">
-        <v>1.043546865226473</v>
+        <v>1.010784002363195</v>
       </c>
       <c r="K20">
-        <v>1.051850551120391</v>
+        <v>1.022486311971662</v>
       </c>
       <c r="L20">
-        <v>1.044686822326943</v>
+        <v>1.006597120245747</v>
       </c>
       <c r="M20">
-        <v>1.056035853572688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.024862423103768</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00814345915225</v>
+        <v>0.9771151156774576</v>
       </c>
       <c r="D21">
-        <v>1.031704071472531</v>
+        <v>1.004704181568693</v>
       </c>
       <c r="E21">
-        <v>1.024029158375661</v>
+        <v>0.9881488469194594</v>
       </c>
       <c r="F21">
-        <v>1.035382981630182</v>
+        <v>1.006455122224933</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055710986976796</v>
+        <v>1.038918237675966</v>
       </c>
       <c r="J21">
-        <v>1.037304607719723</v>
+        <v>1.007601814144906</v>
       </c>
       <c r="K21">
-        <v>1.04610870508828</v>
+        <v>1.01959697651118</v>
       </c>
       <c r="L21">
-        <v>1.038569156280966</v>
+        <v>1.003358276076128</v>
       </c>
       <c r="M21">
-        <v>1.049723649988362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.021315223703154</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002621401788659</v>
+        <v>0.9736116970952325</v>
       </c>
       <c r="D22">
-        <v>1.027326070210324</v>
+        <v>1.002209366712524</v>
       </c>
       <c r="E22">
-        <v>1.019398112039176</v>
+        <v>0.9854118262012158</v>
       </c>
       <c r="F22">
-        <v>1.030635245169618</v>
+        <v>1.003533716554868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053538713004516</v>
+        <v>1.038097243916281</v>
       </c>
       <c r="J22">
-        <v>1.0332469683826</v>
+        <v>1.005555437493296</v>
       </c>
       <c r="K22">
-        <v>1.042374957133791</v>
+        <v>1.017737182308393</v>
       </c>
       <c r="L22">
-        <v>1.03459484039722</v>
+        <v>1.001277924934319</v>
       </c>
       <c r="M22">
-        <v>1.045623298331576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.019035493367767</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005566472426538</v>
+        <v>0.9754765108324023</v>
       </c>
       <c r="D23">
-        <v>1.029660370365637</v>
+        <v>1.003536771125364</v>
       </c>
       <c r="E23">
-        <v>1.021867097509621</v>
+        <v>0.9868678325155922</v>
       </c>
       <c r="F23">
-        <v>1.033166442991913</v>
+        <v>1.005087998843798</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05469834773238</v>
+        <v>1.038535115435955</v>
       </c>
       <c r="J23">
-        <v>1.035411179007779</v>
+        <v>1.006644707065151</v>
       </c>
       <c r="K23">
-        <v>1.044366537156608</v>
+        <v>1.018727292653653</v>
       </c>
       <c r="L23">
-        <v>1.036714383897874</v>
+        <v>1.002385046201626</v>
       </c>
       <c r="M23">
-        <v>1.047810023318213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.020248839150513</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016782402736405</v>
+        <v>0.9826540923508584</v>
       </c>
       <c r="D24">
-        <v>1.038562689361863</v>
+        <v>1.008657272903089</v>
       </c>
       <c r="E24">
-        <v>1.031288268355114</v>
+        <v>0.9924904124116958</v>
       </c>
       <c r="F24">
-        <v>1.042824967826467</v>
+        <v>1.011085889532314</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059090383019351</v>
+        <v>1.040201167079921</v>
       </c>
       <c r="J24">
-        <v>1.043649389207434</v>
+        <v>1.01083660578218</v>
       </c>
       <c r="K24">
-        <v>1.051944831672495</v>
+        <v>1.02253404388307</v>
       </c>
       <c r="L24">
-        <v>1.044787337191291</v>
+        <v>1.006650700862737</v>
       </c>
       <c r="M24">
-        <v>1.056139569926989</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.02492108180345</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029098032582192</v>
+        <v>0.9906686716759465</v>
       </c>
       <c r="D25">
-        <v>1.048358272860272</v>
+        <v>1.014395015104345</v>
       </c>
       <c r="E25">
-        <v>1.041665916205429</v>
+        <v>0.9988039036725496</v>
       </c>
       <c r="F25">
-        <v>1.053463839466574</v>
+        <v>1.017811871697499</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063860937314592</v>
+        <v>1.04202016693589</v>
       </c>
       <c r="J25">
-        <v>1.052684303174337</v>
+        <v>1.015514205401483</v>
       </c>
       <c r="K25">
-        <v>1.06024956153094</v>
+        <v>1.02677390255045</v>
       </c>
       <c r="L25">
-        <v>1.053650108285763</v>
+        <v>1.01142081591604</v>
       </c>
       <c r="M25">
-        <v>1.065285251662227</v>
+        <v>1.030139833506857</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.996830180030158</v>
+        <v>1.028333286578941</v>
       </c>
       <c r="D2">
-        <v>1.018819377033408</v>
+        <v>1.036506160765282</v>
       </c>
       <c r="E2">
-        <v>1.003683609329757</v>
+        <v>1.028308089439664</v>
       </c>
       <c r="F2">
-        <v>1.023002901855512</v>
+        <v>1.045316223443975</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043383664774351</v>
+        <v>1.033753740601323</v>
       </c>
       <c r="J2">
-        <v>1.019106114993871</v>
+        <v>1.033486186819577</v>
       </c>
       <c r="K2">
-        <v>1.030022609188463</v>
+        <v>1.039299707786021</v>
       </c>
       <c r="L2">
-        <v>1.015091863067819</v>
+        <v>1.031125284585217</v>
       </c>
       <c r="M2">
-        <v>1.034150808082483</v>
+        <v>1.048084805741589</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001180376782239</v>
+        <v>1.029264745061004</v>
       </c>
       <c r="D3">
-        <v>1.021949459150958</v>
+        <v>1.037196341351082</v>
       </c>
       <c r="E3">
-        <v>1.00714282825824</v>
+        <v>1.029098810820422</v>
       </c>
       <c r="F3">
-        <v>1.026678330737054</v>
+        <v>1.046146191492865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044325247271077</v>
+        <v>1.033896067206445</v>
       </c>
       <c r="J3">
-        <v>1.021638915176472</v>
+        <v>1.034058302321531</v>
       </c>
       <c r="K3">
-        <v>1.032308989025883</v>
+        <v>1.039799820788631</v>
       </c>
       <c r="L3">
-        <v>1.017685123831344</v>
+        <v>1.031723960519062</v>
       </c>
       <c r="M3">
-        <v>1.036980867983013</v>
+        <v>1.048726141269683</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003941192729283</v>
+        <v>1.029868095796984</v>
       </c>
       <c r="D4">
-        <v>1.02393847615091</v>
+        <v>1.037643300497118</v>
       </c>
       <c r="E4">
-        <v>1.009344366172447</v>
+        <v>1.029611384564347</v>
       </c>
       <c r="F4">
-        <v>1.029015345255645</v>
+        <v>1.046683933459939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04491277429006</v>
+        <v>1.033986983326679</v>
       </c>
       <c r="J4">
-        <v>1.023244616883428</v>
+        <v>1.034428524607848</v>
       </c>
       <c r="K4">
-        <v>1.033756320963118</v>
+        <v>1.040123116547517</v>
       </c>
       <c r="L4">
-        <v>1.019331306113937</v>
+        <v>1.032111613505976</v>
       </c>
       <c r="M4">
-        <v>1.038775752222588</v>
+        <v>1.049141176486108</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005089339609894</v>
+        <v>1.030121895208278</v>
       </c>
       <c r="D5">
-        <v>1.024766203862156</v>
+        <v>1.037831288166892</v>
       </c>
       <c r="E5">
-        <v>1.010261362239702</v>
+        <v>1.029827090249437</v>
       </c>
       <c r="F5">
-        <v>1.029988254027539</v>
+        <v>1.046910165357188</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045154660110087</v>
+        <v>1.034024921664882</v>
       </c>
       <c r="J5">
-        <v>1.023911936355746</v>
+        <v>1.034584170967199</v>
       </c>
       <c r="K5">
-        <v>1.034357291941465</v>
+        <v>1.040258954475734</v>
       </c>
       <c r="L5">
-        <v>1.020015964861141</v>
+        <v>1.032274646155722</v>
       </c>
       <c r="M5">
-        <v>1.039521858320942</v>
+        <v>1.049315667406149</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00528139792163</v>
+        <v>1.030164518051775</v>
       </c>
       <c r="D6">
-        <v>1.02490469420186</v>
+        <v>1.037862857122597</v>
       </c>
       <c r="E6">
-        <v>1.010414837636675</v>
+        <v>1.029863321020171</v>
       </c>
       <c r="F6">
-        <v>1.030151056835514</v>
+        <v>1.046948160324017</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045194976768507</v>
+        <v>1.034031275077548</v>
       </c>
       <c r="J6">
-        <v>1.024023536109248</v>
+        <v>1.034610304930425</v>
       </c>
       <c r="K6">
-        <v>1.034457764181855</v>
+        <v>1.040281757792864</v>
       </c>
       <c r="L6">
-        <v>1.020130494682785</v>
+        <v>1.032302023733621</v>
       </c>
       <c r="M6">
-        <v>1.039646643305391</v>
+        <v>1.049344965750858</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003956582872854</v>
+        <v>1.029871486486259</v>
       </c>
       <c r="D7">
-        <v>1.023949569189668</v>
+        <v>1.037645812061496</v>
       </c>
       <c r="E7">
-        <v>1.009356652273323</v>
+        <v>1.029614265973019</v>
       </c>
       <c r="F7">
-        <v>1.029028382534583</v>
+        <v>1.046686955734765</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044916026339352</v>
+        <v>1.033987491372582</v>
       </c>
       <c r="J7">
-        <v>1.02325356366845</v>
+        <v>1.034430604344264</v>
       </c>
       <c r="K7">
-        <v>1.033764380328703</v>
+        <v>1.040124931919165</v>
       </c>
       <c r="L7">
-        <v>1.019340483330003</v>
+        <v>1.032113791708887</v>
       </c>
       <c r="M7">
-        <v>1.038785754672872</v>
+        <v>1.049143508004379</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9983118128992003</v>
+        <v>1.028647945160686</v>
       </c>
       <c r="D8">
-        <v>1.019884883769828</v>
+        <v>1.03673933374085</v>
       </c>
       <c r="E8">
-        <v>1.004860463384559</v>
+        <v>1.028575125147773</v>
       </c>
       <c r="F8">
-        <v>1.024253752441961</v>
+        <v>1.04559656964865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043706436436527</v>
+        <v>1.033802084234763</v>
       </c>
       <c r="J8">
-        <v>1.019969099467541</v>
+        <v>1.033679530003825</v>
       </c>
       <c r="K8">
-        <v>1.030802073366161</v>
+        <v>1.039468786945269</v>
       </c>
       <c r="L8">
-        <v>1.015974996673661</v>
+        <v>1.03132755336186</v>
       </c>
       <c r="M8">
-        <v>1.035114915314121</v>
+        <v>1.048301537233928</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9879301700846816</v>
+        <v>1.026496824634731</v>
       </c>
       <c r="D9">
-        <v>1.012432208659239</v>
+        <v>1.035144878708707</v>
       </c>
       <c r="E9">
-        <v>0.9966424047308168</v>
+        <v>1.02675117283253</v>
       </c>
       <c r="F9">
-        <v>1.015510308368134</v>
+        <v>1.043680585440731</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041404019760395</v>
+        <v>1.033466372774382</v>
       </c>
       <c r="J9">
-        <v>1.013916464829623</v>
+        <v>1.03235628549819</v>
       </c>
       <c r="K9">
-        <v>1.025326751502653</v>
+        <v>1.038310248527629</v>
       </c>
       <c r="L9">
-        <v>1.009790192482219</v>
+        <v>1.029944219626492</v>
       </c>
       <c r="M9">
-        <v>1.028356655809013</v>
+        <v>1.046818310057032</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9806857824710324</v>
+        <v>1.025066120818482</v>
       </c>
       <c r="D10">
-        <v>1.007251320005825</v>
+        <v>1.034083937938518</v>
       </c>
       <c r="E10">
-        <v>0.9909455939022067</v>
+        <v>1.025540102070435</v>
       </c>
       <c r="F10">
-        <v>1.009438650311148</v>
+        <v>1.042407005970271</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039747503190196</v>
+        <v>1.033236550216357</v>
       </c>
       <c r="J10">
-        <v>1.009687226550953</v>
+        <v>1.031474354797171</v>
       </c>
       <c r="K10">
-        <v>1.021490872370126</v>
+        <v>1.037536396374287</v>
       </c>
       <c r="L10">
-        <v>1.005480275745226</v>
+        <v>1.029023493683477</v>
       </c>
       <c r="M10">
-        <v>1.023639552858069</v>
+        <v>1.045829868174028</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9774647479714572</v>
+        <v>1.024447425944714</v>
       </c>
       <c r="D11">
-        <v>1.004953396818132</v>
+        <v>1.033625040336938</v>
       </c>
       <c r="E11">
-        <v>0.9884223770559957</v>
+        <v>1.025016876093686</v>
       </c>
       <c r="F11">
-        <v>1.0067469946032</v>
+        <v>1.041856441358891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038999781398843</v>
+        <v>1.033135615480893</v>
       </c>
       <c r="J11">
-        <v>1.007806028048598</v>
+        <v>1.031092538374198</v>
       </c>
       <c r="K11">
-        <v>1.019782500023126</v>
+        <v>1.037200970650405</v>
       </c>
       <c r="L11">
-        <v>1.003565983789228</v>
+        <v>1.028625179244212</v>
       </c>
       <c r="M11">
-        <v>1.021542784369263</v>
+        <v>1.045401969031023</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9762549838321679</v>
+        <v>1.024217737869335</v>
       </c>
       <c r="D12">
-        <v>1.004091269191258</v>
+        <v>1.033454661584798</v>
       </c>
       <c r="E12">
-        <v>0.9874762302822913</v>
+        <v>1.024822704860062</v>
       </c>
       <c r="F12">
-        <v>1.005737334984252</v>
+        <v>1.041652074644083</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03871732471478</v>
+        <v>1.033097911072045</v>
       </c>
       <c r="J12">
-        <v>1.007099417172781</v>
+        <v>1.030950725705319</v>
       </c>
       <c r="K12">
-        <v>1.019140504463598</v>
+        <v>1.037076328313773</v>
       </c>
       <c r="L12">
-        <v>1.002847364530992</v>
+        <v>1.028477283713681</v>
       </c>
       <c r="M12">
-        <v>1.020755436036995</v>
+        <v>1.045243045094109</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9765150969678241</v>
+        <v>1.024267001167957</v>
       </c>
       <c r="D13">
-        <v>1.004276592951354</v>
+        <v>1.033491204929085</v>
       </c>
       <c r="E13">
-        <v>0.9876795924391953</v>
+        <v>1.024864347160223</v>
       </c>
       <c r="F13">
-        <v>1.0059543641649</v>
+        <v>1.041695905748492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038778128655523</v>
+        <v>1.03310600841377</v>
       </c>
       <c r="J13">
-        <v>1.007251348728264</v>
+        <v>1.030981144490531</v>
       </c>
       <c r="K13">
-        <v>1.0192785560597</v>
+        <v>1.037103066774633</v>
       </c>
       <c r="L13">
-        <v>1.003001858946434</v>
+        <v>1.028509005245097</v>
       </c>
       <c r="M13">
-        <v>1.020924716412209</v>
+        <v>1.045277134032358</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9773650245011958</v>
+        <v>1.024428437346015</v>
       </c>
       <c r="D14">
-        <v>1.004882310315215</v>
+        <v>1.033610955211317</v>
       </c>
       <c r="E14">
-        <v>0.9883443526412058</v>
+        <v>1.025000822194873</v>
       </c>
       <c r="F14">
-        <v>1.006663739676988</v>
+        <v>1.041839545527647</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038976530597803</v>
+        <v>1.033132503159379</v>
       </c>
       <c r="J14">
-        <v>1.007747781623487</v>
+        <v>1.031080815864831</v>
       </c>
       <c r="K14">
-        <v>1.019729585884071</v>
+        <v>1.037190668694957</v>
       </c>
       <c r="L14">
-        <v>1.003506738908434</v>
+        <v>1.028612953000354</v>
       </c>
       <c r="M14">
-        <v>1.021477877823712</v>
+        <v>1.045388831976699</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9778869055355598</v>
+        <v>1.024527919803405</v>
       </c>
       <c r="D15">
-        <v>1.005254364551943</v>
+        <v>1.033684747464628</v>
       </c>
       <c r="E15">
-        <v>0.9887527391638028</v>
+        <v>1.025084932626687</v>
       </c>
       <c r="F15">
-        <v>1.007099488839468</v>
+        <v>1.041928065007397</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039098142662474</v>
+        <v>1.033148799272371</v>
       </c>
       <c r="J15">
-        <v>1.008052599216803</v>
+        <v>1.031142228172944</v>
       </c>
       <c r="K15">
-        <v>1.020006486183977</v>
+        <v>1.037244636501228</v>
       </c>
       <c r="L15">
-        <v>1.003816798885624</v>
+        <v>1.028677006124453</v>
       </c>
       <c r="M15">
-        <v>1.021817559103056</v>
+        <v>1.045457655043056</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9808977213216639</v>
+        <v>1.025107198709705</v>
       </c>
       <c r="D16">
-        <v>1.007402644178271</v>
+        <v>1.034114404065151</v>
       </c>
       <c r="E16">
-        <v>0.9911118259166951</v>
+        <v>1.025574851758338</v>
       </c>
       <c r="F16">
-        <v>1.009615929723093</v>
+        <v>1.042443564317492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039796473423861</v>
+        <v>1.03324321905404</v>
       </c>
       <c r="J16">
-        <v>1.0098109944527</v>
+        <v>1.031499696169543</v>
       </c>
       <c r="K16">
-        <v>1.02160322675238</v>
+        <v>1.037558650357454</v>
       </c>
       <c r="L16">
-        <v>1.005606279353344</v>
+        <v>1.029049936314349</v>
       </c>
       <c r="M16">
-        <v>1.023777535034798</v>
+        <v>1.045858268716639</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9827633243047218</v>
+        <v>1.025470782556309</v>
       </c>
       <c r="D17">
-        <v>1.008735334583412</v>
+        <v>1.034384050436876</v>
       </c>
       <c r="E17">
-        <v>0.9925762080423615</v>
+        <v>1.025882480945102</v>
       </c>
       <c r="F17">
-        <v>1.011177357112819</v>
+        <v>1.042767166580031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040226268016741</v>
+        <v>1.033302066318483</v>
       </c>
       <c r="J17">
-        <v>1.010900385742835</v>
+        <v>1.031723944701691</v>
       </c>
       <c r="K17">
-        <v>1.022591915887975</v>
+        <v>1.037755532059627</v>
       </c>
       <c r="L17">
-        <v>1.006715667462001</v>
+        <v>1.029283964400411</v>
       </c>
       <c r="M17">
-        <v>1.024992204521388</v>
+        <v>1.046109591595864</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9838434265774946</v>
+        <v>1.025682932872437</v>
       </c>
       <c r="D18">
-        <v>1.009507432501658</v>
+        <v>1.034541378424488</v>
       </c>
       <c r="E18">
-        <v>0.9934249401406299</v>
+        <v>1.026062029174009</v>
       </c>
       <c r="F18">
-        <v>1.012082104720543</v>
+        <v>1.042956005383517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040474033366523</v>
+        <v>1.033336253878044</v>
       </c>
       <c r="J18">
-        <v>1.011531018526258</v>
+        <v>1.031854751310113</v>
       </c>
       <c r="K18">
-        <v>1.023164048764152</v>
+        <v>1.037870336686479</v>
       </c>
       <c r="L18">
-        <v>1.007358141127339</v>
+        <v>1.029420504253573</v>
       </c>
       <c r="M18">
-        <v>1.02569549410861</v>
+        <v>1.046256193794191</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9842103643376738</v>
+        <v>1.025755283844468</v>
       </c>
       <c r="D19">
-        <v>1.009769820634852</v>
+        <v>1.034595031264578</v>
       </c>
       <c r="E19">
-        <v>0.993713429595218</v>
+        <v>1.026123269655155</v>
       </c>
       <c r="F19">
-        <v>1.012389594835367</v>
+        <v>1.043020409253058</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040558022842987</v>
+        <v>1.033347887687591</v>
       </c>
       <c r="J19">
-        <v>1.01174524572498</v>
+        <v>1.0318993540063</v>
       </c>
       <c r="K19">
-        <v>1.023358368065438</v>
+        <v>1.03790947644029</v>
       </c>
       <c r="L19">
-        <v>1.007576435581822</v>
+        <v>1.029467066753982</v>
       </c>
       <c r="M19">
-        <v>1.025934425340358</v>
+        <v>1.046306182976705</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9825640025193342</v>
+        <v>1.0254317653732</v>
       </c>
       <c r="D20">
-        <v>1.008592893955053</v>
+        <v>1.034355114975053</v>
       </c>
       <c r="E20">
-        <v>0.9924196570442972</v>
+        <v>1.025849463511308</v>
       </c>
       <c r="F20">
-        <v>1.011010455223209</v>
+        <v>1.042732438100388</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040180458860888</v>
+        <v>1.033295766735809</v>
       </c>
       <c r="J20">
-        <v>1.010784002363195</v>
+        <v>1.031699884303541</v>
       </c>
       <c r="K20">
-        <v>1.022486311971662</v>
+        <v>1.037734411935386</v>
       </c>
       <c r="L20">
-        <v>1.006597120245747</v>
+        <v>1.029258851748887</v>
       </c>
       <c r="M20">
-        <v>1.024862423103768</v>
+        <v>1.046082626003916</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9771151156774576</v>
+        <v>1.024380895017502</v>
       </c>
       <c r="D21">
-        <v>1.004704181568693</v>
+        <v>1.033575689620054</v>
       </c>
       <c r="E21">
-        <v>0.9881488469194594</v>
+        <v>1.024960628767242</v>
       </c>
       <c r="F21">
-        <v>1.006455122224933</v>
+        <v>1.041797243383413</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038918237675966</v>
+        <v>1.033124706985448</v>
       </c>
       <c r="J21">
-        <v>1.007601814144906</v>
+        <v>1.03105146481799</v>
       </c>
       <c r="K21">
-        <v>1.01959697651118</v>
+        <v>1.037164873491488</v>
       </c>
       <c r="L21">
-        <v>1.003358276076128</v>
+        <v>1.028582341416548</v>
       </c>
       <c r="M21">
-        <v>1.021315223703154</v>
+        <v>1.045355939239309</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9736116970952325</v>
+        <v>1.023720881875455</v>
       </c>
       <c r="D22">
-        <v>1.002209366712524</v>
+        <v>1.033086075919961</v>
       </c>
       <c r="E22">
-        <v>0.9854118262012158</v>
+        <v>1.024402814815714</v>
       </c>
       <c r="F22">
-        <v>1.003533716554868</v>
+        <v>1.041210045708527</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038097243916281</v>
+        <v>1.033015924296492</v>
       </c>
       <c r="J22">
-        <v>1.005555437493296</v>
+        <v>1.030643841669302</v>
       </c>
       <c r="K22">
-        <v>1.017737182308393</v>
+        <v>1.03680649170505</v>
       </c>
       <c r="L22">
-        <v>1.001277924934319</v>
+        <v>1.028157318198017</v>
       </c>
       <c r="M22">
-        <v>1.019035493367767</v>
+        <v>1.044899140663326</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9754765108324023</v>
+        <v>1.024070699570384</v>
       </c>
       <c r="D23">
-        <v>1.003536771125364</v>
+        <v>1.033345586974014</v>
       </c>
       <c r="E23">
-        <v>0.9868678325155922</v>
+        <v>1.024698424228091</v>
       </c>
       <c r="F23">
-        <v>1.005087998843798</v>
+        <v>1.041521254244513</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038535115435955</v>
+        <v>1.033073708509836</v>
       </c>
       <c r="J23">
-        <v>1.006644707065151</v>
+        <v>1.030859923977745</v>
       </c>
       <c r="K23">
-        <v>1.018727292653653</v>
+        <v>1.036996503796713</v>
       </c>
       <c r="L23">
-        <v>1.002385046201626</v>
+        <v>1.028382599775118</v>
       </c>
       <c r="M23">
-        <v>1.020248839150513</v>
+        <v>1.045141288443897</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9826540923508584</v>
+        <v>1.025449395317832</v>
       </c>
       <c r="D24">
-        <v>1.008657272903089</v>
+        <v>1.034368189517167</v>
       </c>
       <c r="E24">
-        <v>0.9924904124116958</v>
+        <v>1.025864382318433</v>
       </c>
       <c r="F24">
-        <v>1.011085889532314</v>
+        <v>1.042748130136607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040201167079921</v>
+        <v>1.033298613669594</v>
       </c>
       <c r="J24">
-        <v>1.01083660578218</v>
+        <v>1.031710756142654</v>
       </c>
       <c r="K24">
-        <v>1.02253404388307</v>
+        <v>1.037743955312948</v>
       </c>
       <c r="L24">
-        <v>1.006650700862737</v>
+        <v>1.029270198966426</v>
       </c>
       <c r="M24">
-        <v>1.02492108180345</v>
+        <v>1.046094810564027</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9906686716759465</v>
+        <v>1.027052350972482</v>
       </c>
       <c r="D25">
-        <v>1.014395015104345</v>
+        <v>1.03555673289764</v>
       </c>
       <c r="E25">
-        <v>0.9988039036725496</v>
+        <v>1.027221851787698</v>
       </c>
       <c r="F25">
-        <v>1.017811871697499</v>
+        <v>1.044175260987338</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04202016693589</v>
+        <v>1.03355422507682</v>
       </c>
       <c r="J25">
-        <v>1.015514205401483</v>
+        <v>1.032698339954248</v>
       </c>
       <c r="K25">
-        <v>1.02677390255045</v>
+        <v>1.038610026896909</v>
       </c>
       <c r="L25">
-        <v>1.01142081591604</v>
+        <v>1.030301586055917</v>
       </c>
       <c r="M25">
-        <v>1.030139833506857</v>
+        <v>1.047201699757722</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028333286578941</v>
+        <v>0.9812750133823841</v>
       </c>
       <c r="D2">
-        <v>1.036506160765282</v>
+        <v>1.003499964226778</v>
       </c>
       <c r="E2">
-        <v>1.028308089439664</v>
+        <v>0.9903030030288308</v>
       </c>
       <c r="F2">
-        <v>1.045316223443975</v>
+        <v>0.9571077180409761</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033753740601323</v>
+        <v>1.038293036964869</v>
       </c>
       <c r="J2">
-        <v>1.033486186819577</v>
+        <v>1.004030583141123</v>
       </c>
       <c r="K2">
-        <v>1.039299707786021</v>
+        <v>1.014910753397613</v>
       </c>
       <c r="L2">
-        <v>1.031125284585217</v>
+        <v>1.001899106209321</v>
       </c>
       <c r="M2">
-        <v>1.048084805741589</v>
-      </c>
-      <c r="N2">
-        <v>1.005712725503983</v>
+        <v>0.9691988186735878</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029264745061004</v>
+        <v>0.9866823439261853</v>
       </c>
       <c r="D3">
-        <v>1.037196341351082</v>
+        <v>1.007552116354408</v>
       </c>
       <c r="E3">
-        <v>1.029098810820422</v>
+        <v>0.9946541441699085</v>
       </c>
       <c r="F3">
-        <v>1.046146191492865</v>
+        <v>0.9653413883578652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033896067206445</v>
+        <v>1.039845521827299</v>
       </c>
       <c r="J3">
-        <v>1.034058302321531</v>
+        <v>1.007542765242068</v>
       </c>
       <c r="K3">
-        <v>1.039799820788631</v>
+        <v>1.018089269865249</v>
       </c>
       <c r="L3">
-        <v>1.031723960519062</v>
+        <v>1.005355886309721</v>
       </c>
       <c r="M3">
-        <v>1.048726141269683</v>
-      </c>
-      <c r="N3">
-        <v>1.005712725503983</v>
+        <v>0.9764378188275739</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029868095796984</v>
+        <v>0.990088520639957</v>
       </c>
       <c r="D4">
-        <v>1.037643300497118</v>
+        <v>1.010103469913794</v>
       </c>
       <c r="E4">
-        <v>1.029611384564347</v>
+        <v>0.9974014011976874</v>
       </c>
       <c r="F4">
-        <v>1.046683933459939</v>
+        <v>0.9705138606334948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033986983326679</v>
+        <v>1.040805932586319</v>
       </c>
       <c r="J4">
-        <v>1.034428524607848</v>
+        <v>1.009749206713584</v>
       </c>
       <c r="K4">
-        <v>1.040123116547517</v>
+        <v>1.020081465361995</v>
       </c>
       <c r="L4">
-        <v>1.032111613505976</v>
+        <v>1.007531290529476</v>
       </c>
       <c r="M4">
-        <v>1.049141176486108</v>
-      </c>
-      <c r="N4">
-        <v>1.005712725503983</v>
+        <v>0.980981685116789</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030121895208278</v>
+        <v>0.99149930978872</v>
       </c>
       <c r="D5">
-        <v>1.037831288166892</v>
+        <v>1.011159838366435</v>
       </c>
       <c r="E5">
-        <v>1.029827090249437</v>
+        <v>0.998540753600817</v>
       </c>
       <c r="F5">
-        <v>1.046910165357188</v>
+        <v>0.972653356609147</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034024921664882</v>
+        <v>1.041199448457012</v>
       </c>
       <c r="J5">
-        <v>1.034584170967199</v>
+        <v>1.010661635264924</v>
       </c>
       <c r="K5">
-        <v>1.040258954475734</v>
+        <v>1.020904144203958</v>
       </c>
       <c r="L5">
-        <v>1.032274646155722</v>
+        <v>1.00843177916983</v>
       </c>
       <c r="M5">
-        <v>1.049315667406149</v>
-      </c>
-      <c r="N5">
-        <v>1.005712725503983</v>
+        <v>0.982860224294731</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030164518051775</v>
+        <v>0.9917349748140497</v>
       </c>
       <c r="D6">
-        <v>1.037862857122597</v>
+        <v>1.011336275377618</v>
       </c>
       <c r="E6">
-        <v>1.029863321020171</v>
+        <v>0.9987311618837893</v>
       </c>
       <c r="F6">
-        <v>1.046948160324017</v>
+        <v>0.973010593687538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034031275077548</v>
+        <v>1.04126493007877</v>
       </c>
       <c r="J6">
-        <v>1.034610304930425</v>
+        <v>1.01081396598381</v>
       </c>
       <c r="K6">
-        <v>1.040281757792864</v>
+        <v>1.021041422131588</v>
       </c>
       <c r="L6">
-        <v>1.032302023733621</v>
+        <v>1.008582168907411</v>
       </c>
       <c r="M6">
-        <v>1.049344965750858</v>
-      </c>
-      <c r="N6">
-        <v>1.005712725503983</v>
+        <v>0.9831738318280288</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029871486486259</v>
+        <v>0.9901074535384708</v>
       </c>
       <c r="D7">
-        <v>1.037645812061496</v>
+        <v>1.010117648013245</v>
       </c>
       <c r="E7">
-        <v>1.029614265973019</v>
+        <v>0.9974166856185459</v>
       </c>
       <c r="F7">
-        <v>1.046686955734765</v>
+        <v>0.9705425835357681</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033987491372582</v>
+        <v>1.04081123058659</v>
       </c>
       <c r="J7">
-        <v>1.034430604344264</v>
+        <v>1.009761457328802</v>
       </c>
       <c r="K7">
-        <v>1.040124931919165</v>
+        <v>1.020092515580501</v>
       </c>
       <c r="L7">
-        <v>1.032113791708887</v>
+        <v>1.007543377303754</v>
       </c>
       <c r="M7">
-        <v>1.049143508004379</v>
-      </c>
-      <c r="N7">
-        <v>1.005712725503983</v>
+        <v>0.9810069084559188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028647945160686</v>
+        <v>0.9831222917739141</v>
       </c>
       <c r="D8">
-        <v>1.03673933374085</v>
+        <v>1.004884473901368</v>
       </c>
       <c r="E8">
-        <v>1.028575125147773</v>
+        <v>0.9917880793002518</v>
       </c>
       <c r="F8">
-        <v>1.04559656964865</v>
+        <v>0.9599238336676318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033802084234763</v>
+        <v>1.03882705440773</v>
       </c>
       <c r="J8">
-        <v>1.033679530003825</v>
+        <v>1.005231671555702</v>
       </c>
       <c r="K8">
-        <v>1.039468786945269</v>
+        <v>1.015998685902944</v>
       </c>
       <c r="L8">
-        <v>1.03132755336186</v>
+        <v>1.003080447393018</v>
       </c>
       <c r="M8">
-        <v>1.048301537233928</v>
-      </c>
-      <c r="N8">
-        <v>1.005712725503983</v>
+        <v>0.9716754925492216</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026496824634731</v>
+        <v>0.9700526431545088</v>
       </c>
       <c r="D9">
-        <v>1.035144878708707</v>
+        <v>0.9950876115498707</v>
       </c>
       <c r="E9">
-        <v>1.02675117283253</v>
+        <v>0.9813110009986517</v>
       </c>
       <c r="F9">
-        <v>1.043680585440731</v>
+        <v>0.9399152242539572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033466372774382</v>
+        <v>1.034976320037877</v>
       </c>
       <c r="J9">
-        <v>1.03235628549819</v>
+        <v>0.9967091220069922</v>
       </c>
       <c r="K9">
-        <v>1.038310248527629</v>
+        <v>1.008260894820274</v>
       </c>
       <c r="L9">
-        <v>1.029944219626492</v>
+        <v>0.9947147509398298</v>
       </c>
       <c r="M9">
-        <v>1.046818310057032</v>
-      </c>
-      <c r="N9">
-        <v>1.005712725503983</v>
+        <v>0.9540646552738213</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025066120818482</v>
+        <v>0.9607492879348897</v>
       </c>
       <c r="D10">
-        <v>1.034083937938518</v>
+        <v>0.9881165861540583</v>
       </c>
       <c r="E10">
-        <v>1.025540102070435</v>
+        <v>0.9738944208647639</v>
       </c>
       <c r="F10">
-        <v>1.042407005970271</v>
+        <v>0.9255333110893355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033236550216357</v>
+        <v>1.032145686071138</v>
       </c>
       <c r="J10">
-        <v>1.031474354797171</v>
+        <v>0.9906116479904723</v>
       </c>
       <c r="K10">
-        <v>1.037536396374287</v>
+        <v>1.002703766071906</v>
       </c>
       <c r="L10">
-        <v>1.029023493683477</v>
+        <v>0.9887515780388869</v>
       </c>
       <c r="M10">
-        <v>1.045829868174028</v>
-      </c>
-      <c r="N10">
-        <v>1.005712725503983</v>
+        <v>0.9413911673728548</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024447425944714</v>
+        <v>0.9565606108573269</v>
       </c>
       <c r="D11">
-        <v>1.033625040336938</v>
+        <v>0.9849801504587424</v>
       </c>
       <c r="E11">
-        <v>1.025016876093686</v>
+        <v>0.970566100066337</v>
       </c>
       <c r="F11">
-        <v>1.041856441358891</v>
+        <v>0.9190132578345657</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033135615480893</v>
+        <v>1.030850997671128</v>
       </c>
       <c r="J11">
-        <v>1.031092538374198</v>
+        <v>0.9878592374380536</v>
       </c>
       <c r="K11">
-        <v>1.037200970650405</v>
+        <v>1.000190988848938</v>
       </c>
       <c r="L11">
-        <v>1.028625179244212</v>
+        <v>0.9860652950976393</v>
       </c>
       <c r="M11">
-        <v>1.045401969031023</v>
-      </c>
-      <c r="N11">
-        <v>1.005712725503983</v>
+        <v>0.9356431132230488</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024217737869335</v>
+        <v>0.9549787091526788</v>
       </c>
       <c r="D12">
-        <v>1.033454661584798</v>
+        <v>0.9837961018639469</v>
       </c>
       <c r="E12">
-        <v>1.024822704860062</v>
+        <v>0.9693108519200747</v>
       </c>
       <c r="F12">
-        <v>1.041652074644083</v>
+        <v>0.9165429652716557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033097911072045</v>
+        <v>1.030359093592863</v>
       </c>
       <c r="J12">
-        <v>1.030950725705319</v>
+        <v>0.9868187007971924</v>
       </c>
       <c r="K12">
-        <v>1.037076328313773</v>
+        <v>0.9992404696502306</v>
       </c>
       <c r="L12">
-        <v>1.028477283713681</v>
+        <v>0.9850506108995897</v>
       </c>
       <c r="M12">
-        <v>1.045243045094109</v>
-      </c>
-      <c r="N12">
-        <v>1.005712725503983</v>
+        <v>0.9334650402031492</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024267001167957</v>
+        <v>0.9553192448852605</v>
       </c>
       <c r="D13">
-        <v>1.033491204929085</v>
+        <v>0.9840509686170381</v>
       </c>
       <c r="E13">
-        <v>1.024864347160223</v>
+        <v>0.9695809892443509</v>
       </c>
       <c r="F13">
-        <v>1.041695905748492</v>
+        <v>0.9170751231891781</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03310600841377</v>
+        <v>1.030465117390495</v>
       </c>
       <c r="J13">
-        <v>1.030981144490531</v>
+        <v>0.9870427445215868</v>
       </c>
       <c r="K13">
-        <v>1.037103066774633</v>
+        <v>0.9994451560152964</v>
       </c>
       <c r="L13">
-        <v>1.028509005245097</v>
+        <v>0.9852690492148484</v>
       </c>
       <c r="M13">
-        <v>1.045277134032358</v>
-      </c>
-      <c r="N13">
-        <v>1.005712725503983</v>
+        <v>0.9339342577435057</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024428437346015</v>
+        <v>0.9564303937629142</v>
       </c>
       <c r="D14">
-        <v>1.033610955211317</v>
+        <v>0.9848826731475621</v>
       </c>
       <c r="E14">
-        <v>1.025000822194873</v>
+        <v>0.9704627363547732</v>
       </c>
       <c r="F14">
-        <v>1.041839545527647</v>
+        <v>0.9188100793868599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033132503159379</v>
+        <v>1.030810565026695</v>
       </c>
       <c r="J14">
-        <v>1.031080815864831</v>
+        <v>0.9877736051798875</v>
       </c>
       <c r="K14">
-        <v>1.037190668694957</v>
+        <v>1.000112775938353</v>
       </c>
       <c r="L14">
-        <v>1.028612953000354</v>
+        <v>0.9859817729257078</v>
       </c>
       <c r="M14">
-        <v>1.045388831976699</v>
-      </c>
-      <c r="N14">
-        <v>1.005712725503983</v>
+        <v>0.9354639743283478</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024527919803405</v>
+        <v>0.9571114959967008</v>
       </c>
       <c r="D15">
-        <v>1.033684747464628</v>
+        <v>0.9853925491636805</v>
       </c>
       <c r="E15">
-        <v>1.025084932626687</v>
+        <v>0.9710034525918853</v>
       </c>
       <c r="F15">
-        <v>1.041928065007397</v>
+        <v>0.9198724772865582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033148799272371</v>
+        <v>1.031021929050408</v>
       </c>
       <c r="J15">
-        <v>1.031142228172944</v>
+        <v>0.9882214628949542</v>
       </c>
       <c r="K15">
-        <v>1.037244636501228</v>
+        <v>1.000521807421898</v>
       </c>
       <c r="L15">
-        <v>1.028677006124453</v>
+        <v>0.9864186297235812</v>
       </c>
       <c r="M15">
-        <v>1.045457655043056</v>
-      </c>
-      <c r="N15">
-        <v>1.005712725503983</v>
+        <v>0.9364006616282712</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,409 +950,379 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025107198709705</v>
+        <v>0.9610237376909314</v>
       </c>
       <c r="D16">
-        <v>1.034114404065151</v>
+        <v>0.9883221472017455</v>
       </c>
       <c r="E16">
-        <v>1.025574851758338</v>
+        <v>0.974112731938939</v>
       </c>
       <c r="F16">
-        <v>1.042443564317492</v>
+        <v>0.9259594912171101</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03324321905404</v>
+        <v>1.032230104143718</v>
       </c>
       <c r="J16">
-        <v>1.031499696169543</v>
+        <v>0.9907918443445125</v>
       </c>
       <c r="K16">
-        <v>1.037558650357454</v>
+        <v>1.002868190901547</v>
       </c>
       <c r="L16">
-        <v>1.029049936314349</v>
+        <v>0.988927561272923</v>
       </c>
       <c r="M16">
-        <v>1.045858268716639</v>
-      </c>
-      <c r="N16">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9417668426446412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025470782556309</v>
+        <v>0.9634335608040423</v>
       </c>
       <c r="D17">
-        <v>1.034384050436876</v>
+        <v>0.9901273478236299</v>
       </c>
       <c r="E17">
-        <v>1.025882480945102</v>
+        <v>0.9760308666987524</v>
       </c>
       <c r="F17">
-        <v>1.042767166580031</v>
+        <v>0.9296963946282355</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033302066318483</v>
+        <v>1.032969062301338</v>
       </c>
       <c r="J17">
-        <v>1.031723944701691</v>
+        <v>0.9923732652985894</v>
       </c>
       <c r="K17">
-        <v>1.037755532059627</v>
+        <v>1.004310723445686</v>
       </c>
       <c r="L17">
-        <v>1.029283964400411</v>
+        <v>0.99047263217661</v>
       </c>
       <c r="M17">
-        <v>1.046109591595864</v>
-      </c>
-      <c r="N17">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.945060628388779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025682932872437</v>
+        <v>0.9648238508601984</v>
       </c>
       <c r="D18">
-        <v>1.034541378424488</v>
+        <v>0.9911690083943921</v>
       </c>
       <c r="E18">
-        <v>1.026062029174009</v>
+        <v>0.9771385065004203</v>
       </c>
       <c r="F18">
-        <v>1.042956005383517</v>
+        <v>0.9318481710026776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033336253878044</v>
+        <v>1.033393472486927</v>
       </c>
       <c r="J18">
-        <v>1.031854751310113</v>
+        <v>0.9932849560574264</v>
       </c>
       <c r="K18">
-        <v>1.037870336686479</v>
+        <v>1.005141937469517</v>
       </c>
       <c r="L18">
-        <v>1.029420504253573</v>
+        <v>0.9913638831603255</v>
       </c>
       <c r="M18">
-        <v>1.046256193794191</v>
-      </c>
-      <c r="N18">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9469570058655097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025755283844468</v>
+        <v>0.9652953614264468</v>
       </c>
       <c r="D19">
-        <v>1.034595031264578</v>
+        <v>0.9915223116353499</v>
       </c>
       <c r="E19">
-        <v>1.026123269655155</v>
+        <v>0.9775143273585207</v>
       </c>
       <c r="F19">
-        <v>1.043020409253058</v>
+        <v>0.9325772661159785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033347887687591</v>
+        <v>1.033537081956697</v>
       </c>
       <c r="J19">
-        <v>1.0318993540063</v>
+        <v>0.993594037333779</v>
       </c>
       <c r="K19">
-        <v>1.03790947644029</v>
+        <v>1.005423664500574</v>
       </c>
       <c r="L19">
-        <v>1.029467066753982</v>
+        <v>0.9916661217667931</v>
       </c>
       <c r="M19">
-        <v>1.046306182976705</v>
-      </c>
-      <c r="N19">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9475995188974685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0254317653732</v>
+        <v>0.9631766075651621</v>
       </c>
       <c r="D20">
-        <v>1.034355114975053</v>
+        <v>0.9899348429174203</v>
       </c>
       <c r="E20">
-        <v>1.025849463511308</v>
+        <v>0.9758262345528279</v>
       </c>
       <c r="F20">
-        <v>1.042732438100388</v>
+        <v>0.9292983762107034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033295766735809</v>
+        <v>1.032890467286126</v>
       </c>
       <c r="J20">
-        <v>1.031699884303541</v>
+        <v>0.992204712188323</v>
       </c>
       <c r="K20">
-        <v>1.037734411935386</v>
+        <v>1.004157015393687</v>
       </c>
       <c r="L20">
-        <v>1.029258851748887</v>
+        <v>0.9903078995813595</v>
       </c>
       <c r="M20">
-        <v>1.046082626003916</v>
-      </c>
-      <c r="N20">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9447098311703547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024380895017502</v>
+        <v>0.9561039238865362</v>
       </c>
       <c r="D21">
-        <v>1.033575689620054</v>
+        <v>0.9846382937611114</v>
       </c>
       <c r="E21">
-        <v>1.024960628767242</v>
+        <v>0.970203619310037</v>
       </c>
       <c r="F21">
-        <v>1.041797243383413</v>
+        <v>0.9183005548864893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033124706985448</v>
+        <v>1.030709148389555</v>
       </c>
       <c r="J21">
-        <v>1.03105146481799</v>
+        <v>0.9875588978629518</v>
       </c>
       <c r="K21">
-        <v>1.037164873491488</v>
+        <v>0.9999166622813572</v>
       </c>
       <c r="L21">
-        <v>1.028582341416548</v>
+        <v>0.9857723700858967</v>
       </c>
       <c r="M21">
-        <v>1.045355939239309</v>
-      </c>
-      <c r="N21">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9350147314656512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023720881875455</v>
+        <v>0.951505235250057</v>
       </c>
       <c r="D22">
-        <v>1.033086075919961</v>
+        <v>0.9811972317316475</v>
       </c>
       <c r="E22">
-        <v>1.024402814815714</v>
+        <v>0.9665579327262542</v>
       </c>
       <c r="F22">
-        <v>1.041210045708527</v>
+        <v>0.9111027324887995</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033015924296492</v>
+        <v>1.029273658694874</v>
       </c>
       <c r="J22">
-        <v>1.030643841669302</v>
+        <v>0.9845319961228659</v>
       </c>
       <c r="K22">
-        <v>1.03680649170505</v>
+        <v>0.9971506098328011</v>
       </c>
       <c r="L22">
-        <v>1.028157318198017</v>
+        <v>0.9828223257630722</v>
       </c>
       <c r="M22">
-        <v>1.044899140663326</v>
-      </c>
-      <c r="N22">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9286679793219254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024070699570384</v>
+        <v>0.953958195324336</v>
       </c>
       <c r="D23">
-        <v>1.033345586974014</v>
+        <v>0.9830323989117624</v>
       </c>
       <c r="E23">
-        <v>1.024698424228091</v>
+        <v>0.9685015687538071</v>
       </c>
       <c r="F23">
-        <v>1.041521254244513</v>
+        <v>0.9149469380856879</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033073708509836</v>
+        <v>1.030040937454181</v>
       </c>
       <c r="J23">
-        <v>1.030859923977745</v>
+        <v>0.9861471347821513</v>
       </c>
       <c r="K23">
-        <v>1.036996503796713</v>
+        <v>0.9986268481873268</v>
       </c>
       <c r="L23">
-        <v>1.028382599775118</v>
+        <v>0.9843959742744623</v>
       </c>
       <c r="M23">
-        <v>1.045141288443897</v>
-      </c>
-      <c r="N23">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9320577503737545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025449395317832</v>
+        <v>0.963292760868634</v>
       </c>
       <c r="D24">
-        <v>1.034368189517167</v>
+        <v>0.990021862367117</v>
       </c>
       <c r="E24">
-        <v>1.025864382318433</v>
+        <v>0.9759187334445582</v>
       </c>
       <c r="F24">
-        <v>1.042748130136607</v>
+        <v>0.9294783094760634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033298613669594</v>
+        <v>1.032926001375484</v>
       </c>
       <c r="J24">
-        <v>1.031710756142654</v>
+        <v>0.9922809071307329</v>
       </c>
       <c r="K24">
-        <v>1.037743955312948</v>
+        <v>1.004226500852998</v>
       </c>
       <c r="L24">
-        <v>1.029270198966426</v>
+        <v>0.9903823658476876</v>
       </c>
       <c r="M24">
-        <v>1.046094810564027</v>
-      </c>
-      <c r="N24">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9448684177852076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027052350972482</v>
+        <v>0.9735292441948016</v>
       </c>
       <c r="D25">
-        <v>1.03555673289764</v>
+        <v>0.997693643673093</v>
       </c>
       <c r="E25">
-        <v>1.027221851787698</v>
+        <v>0.9840912318241681</v>
       </c>
       <c r="F25">
-        <v>1.044175260987338</v>
+        <v>0.9452579767907751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03355422507682</v>
+        <v>1.036016259385497</v>
       </c>
       <c r="J25">
-        <v>1.032698339954248</v>
+        <v>0.9989815166427347</v>
       </c>
       <c r="K25">
-        <v>1.038610026896909</v>
+        <v>1.010327868672724</v>
       </c>
       <c r="L25">
-        <v>1.030301586055917</v>
+        <v>0.9969416354625417</v>
       </c>
       <c r="M25">
-        <v>1.047201699757722</v>
-      </c>
-      <c r="N25">
-        <v>1.005712725503983</v>
+        <v>0.9587700162505028</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9812750133823841</v>
+        <v>0.9955518510829319</v>
       </c>
       <c r="D2">
-        <v>1.003499964226778</v>
+        <v>1.018436764373923</v>
       </c>
       <c r="E2">
-        <v>0.9903030030288308</v>
+        <v>1.00259770937966</v>
       </c>
       <c r="F2">
-        <v>0.9571077180409761</v>
+        <v>1.014695319609722</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038293036964869</v>
+        <v>1.045873034729254</v>
       </c>
       <c r="J2">
-        <v>1.004030583141123</v>
+        <v>1.017866424402663</v>
       </c>
       <c r="K2">
-        <v>1.014910753397613</v>
+        <v>1.029645084949986</v>
       </c>
       <c r="L2">
-        <v>1.001899106209321</v>
+        <v>1.014020972232261</v>
       </c>
       <c r="M2">
-        <v>0.9691988186735878</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.025953652317756</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029112873782036</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032031813108484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +483,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9866823439261853</v>
+        <v>0.9997729101694764</v>
       </c>
       <c r="D3">
-        <v>1.007552116354408</v>
+        <v>1.02133563615753</v>
       </c>
       <c r="E3">
-        <v>0.9946541441699085</v>
+        <v>1.005942568358711</v>
       </c>
       <c r="F3">
-        <v>0.9653413883578652</v>
+        <v>1.017931973860598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039845521827299</v>
+        <v>1.046848064326415</v>
       </c>
       <c r="J3">
-        <v>1.007542765242068</v>
+        <v>1.020269767797677</v>
       </c>
       <c r="K3">
-        <v>1.018089269865249</v>
+        <v>1.031702611934458</v>
       </c>
       <c r="L3">
-        <v>1.005355886309721</v>
+        <v>1.016499973414699</v>
       </c>
       <c r="M3">
-        <v>0.9764378188275739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.028340439939343</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031001884053241</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033484003301374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +533,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.990088520639957</v>
+        <v>1.0024474726116</v>
       </c>
       <c r="D4">
-        <v>1.010103469913794</v>
+        <v>1.023172637424306</v>
       </c>
       <c r="E4">
-        <v>0.9974014011976874</v>
+        <v>1.008067826688774</v>
       </c>
       <c r="F4">
-        <v>0.9705138606334948</v>
+        <v>1.019991812494888</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040805932586319</v>
+        <v>1.047450391781518</v>
       </c>
       <c r="J4">
-        <v>1.009749206713584</v>
+        <v>1.021788778319061</v>
       </c>
       <c r="K4">
-        <v>1.020081465361995</v>
+        <v>1.032999207685622</v>
       </c>
       <c r="L4">
-        <v>1.007531290529476</v>
+        <v>1.018069845673936</v>
       </c>
       <c r="M4">
-        <v>0.980981685116789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.029854796039017</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032200410412029</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034401726785758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +583,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.99149930978872</v>
+        <v>1.003561818895321</v>
       </c>
       <c r="D5">
-        <v>1.011159838366435</v>
+        <v>1.023939823016302</v>
       </c>
       <c r="E5">
-        <v>0.998540753600817</v>
+        <v>1.008955141725943</v>
       </c>
       <c r="F5">
-        <v>0.972653356609147</v>
+        <v>1.02085111014809</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041199448457012</v>
+        <v>1.047698885020955</v>
       </c>
       <c r="J5">
-        <v>1.010661635264924</v>
+        <v>1.022421983190703</v>
       </c>
       <c r="K5">
-        <v>1.020904144203958</v>
+        <v>1.033540073888974</v>
       </c>
       <c r="L5">
-        <v>1.00843177916983</v>
+        <v>1.018724754385804</v>
       </c>
       <c r="M5">
-        <v>0.982860224294731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.030485769879861</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032699789561453</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034791392285146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +633,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9917349748140497</v>
+        <v>1.003751931420737</v>
       </c>
       <c r="D6">
-        <v>1.011336275377618</v>
+        <v>1.024072906228227</v>
       </c>
       <c r="E6">
-        <v>0.9987311618837893</v>
+        <v>1.009107161717266</v>
       </c>
       <c r="F6">
-        <v>0.973010593687538</v>
+        <v>1.020996555789739</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04126493007877</v>
+        <v>1.047742654325316</v>
       </c>
       <c r="J6">
-        <v>1.01081396598381</v>
+        <v>1.022531489458228</v>
       </c>
       <c r="K6">
-        <v>1.021041422131588</v>
+        <v>1.033635156453616</v>
       </c>
       <c r="L6">
-        <v>1.008582168907411</v>
+        <v>1.018837775309238</v>
       </c>
       <c r="M6">
-        <v>0.9831738318280288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.030592918831001</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.032784591697921</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034867430213378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +683,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9901074535384708</v>
+        <v>1.002472501677231</v>
       </c>
       <c r="D7">
-        <v>1.010117648013245</v>
+        <v>1.023195707711558</v>
       </c>
       <c r="E7">
-        <v>0.9974166856185459</v>
+        <v>1.008089269874676</v>
       </c>
       <c r="F7">
-        <v>0.9705425835357681</v>
+        <v>1.020007686102174</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04081123058659</v>
+        <v>1.047460239153006</v>
       </c>
       <c r="J7">
-        <v>1.009761457328802</v>
+        <v>1.021807103761084</v>
       </c>
       <c r="K7">
-        <v>1.020092515580501</v>
+        <v>1.033019104616677</v>
       </c>
       <c r="L7">
-        <v>1.007543377303754</v>
+        <v>1.018088066166843</v>
       </c>
       <c r="M7">
-        <v>0.9810069084559188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.029867564763687</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.03221051611956</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034436052966463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +733,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9831222917739141</v>
+        <v>0.9970028067978784</v>
       </c>
       <c r="D8">
-        <v>1.004884473901368</v>
+        <v>1.019440139049605</v>
       </c>
       <c r="E8">
-        <v>0.9917880793002518</v>
+        <v>1.003748211605218</v>
       </c>
       <c r="F8">
-        <v>0.9599238336676318</v>
+        <v>1.015801835351732</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03882705440773</v>
+        <v>1.046216412898622</v>
       </c>
       <c r="J8">
-        <v>1.005231671555702</v>
+        <v>1.018698309938877</v>
       </c>
       <c r="K8">
-        <v>1.015998685902944</v>
+        <v>1.030363065776079</v>
       </c>
       <c r="L8">
-        <v>1.003080447393018</v>
+        <v>1.014877649234979</v>
       </c>
       <c r="M8">
-        <v>0.9716754925492216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.026771931788859</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029760497263569</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032562595244357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +783,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9700526431545088</v>
+        <v>0.9868928683666496</v>
       </c>
       <c r="D9">
-        <v>0.9950876115498707</v>
+        <v>1.012493999391878</v>
       </c>
       <c r="E9">
-        <v>0.9813110009986517</v>
+        <v>0.9957706354604702</v>
       </c>
       <c r="F9">
-        <v>0.9399152242539572</v>
+        <v>1.008107267684897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034976320037877</v>
+        <v>1.043790374519024</v>
       </c>
       <c r="J9">
-        <v>0.9967091220069922</v>
+        <v>1.012917117496502</v>
       </c>
       <c r="K9">
-        <v>1.008260894820274</v>
+        <v>1.025387571057945</v>
       </c>
       <c r="L9">
-        <v>0.9947147509398298</v>
+        <v>1.008932705887794</v>
       </c>
       <c r="M9">
-        <v>0.9540646552738213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.021070165436422</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.025247848137877</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029041311944202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +833,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9607492879348897</v>
+        <v>0.9799375626893344</v>
       </c>
       <c r="D10">
-        <v>0.9881165861540583</v>
+        <v>1.007727768295072</v>
       </c>
       <c r="E10">
-        <v>0.9738944208647639</v>
+        <v>0.9903315593532538</v>
       </c>
       <c r="F10">
-        <v>0.9255333110893355</v>
+        <v>1.003110142748991</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032145686071138</v>
+        <v>1.042059495209011</v>
       </c>
       <c r="J10">
-        <v>0.9906116479904723</v>
+        <v>1.008970417179653</v>
       </c>
       <c r="K10">
-        <v>1.002703766071906</v>
+        <v>1.021958883345937</v>
       </c>
       <c r="L10">
-        <v>0.9887515780388869</v>
+        <v>1.004877602645111</v>
       </c>
       <c r="M10">
-        <v>0.9413911673728548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.017423468750646</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022414124264041</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026633956176898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +883,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9565606108573269</v>
+        <v>0.9777982905263617</v>
       </c>
       <c r="D11">
-        <v>0.9849801504587424</v>
+        <v>1.006299794487927</v>
       </c>
       <c r="E11">
-        <v>0.970566100066337</v>
+        <v>0.9887761004800797</v>
       </c>
       <c r="F11">
-        <v>0.9190132578345657</v>
+        <v>1.003526025037098</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030850997671128</v>
+        <v>1.041620809093094</v>
       </c>
       <c r="J11">
-        <v>0.9878592374380536</v>
+        <v>1.008124769561503</v>
       </c>
       <c r="K11">
-        <v>1.000190988848938</v>
+        <v>1.021103875844843</v>
       </c>
       <c r="L11">
-        <v>0.9860652950976393</v>
+        <v>1.003912833254742</v>
       </c>
       <c r="M11">
-        <v>0.9356431132230488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.018381750635338</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023616333060578</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02606265369461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +933,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9549787091526788</v>
+        <v>0.977309079724096</v>
       </c>
       <c r="D12">
-        <v>0.9837961018639469</v>
+        <v>1.005985389613142</v>
       </c>
       <c r="E12">
-        <v>0.9693108519200747</v>
+        <v>0.9884753232810868</v>
       </c>
       <c r="F12">
-        <v>0.9165429652716557</v>
+        <v>1.004552147817884</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030359093592863</v>
+        <v>1.041565318503798</v>
       </c>
       <c r="J12">
-        <v>0.9868187007971924</v>
+        <v>1.008105803215832</v>
       </c>
       <c r="K12">
-        <v>0.9992404696502306</v>
+        <v>1.020998810422932</v>
       </c>
       <c r="L12">
-        <v>0.9850506108995897</v>
+        <v>1.003826699471292</v>
       </c>
       <c r="M12">
-        <v>0.9334650402031492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.019592652439411</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024905299466438</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02598836735092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +983,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9553192448852605</v>
+        <v>0.9780664843107391</v>
       </c>
       <c r="D13">
-        <v>0.9840509686170381</v>
+        <v>1.006519565880199</v>
       </c>
       <c r="E13">
-        <v>0.9695809892443509</v>
+        <v>0.9891267281575757</v>
       </c>
       <c r="F13">
-        <v>0.9170751231891781</v>
+        <v>1.006141313010721</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030465117390495</v>
+        <v>1.041813155554241</v>
       </c>
       <c r="J13">
-        <v>0.9870427445215868</v>
+        <v>1.008732880901389</v>
       </c>
       <c r="K13">
-        <v>0.9994451560152964</v>
+        <v>1.02147930016024</v>
       </c>
       <c r="L13">
-        <v>0.9852690492148484</v>
+        <v>1.004420505020438</v>
       </c>
       <c r="M13">
-        <v>0.9339342577435057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.021108151483558</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026383579150415</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026325574659292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1033,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9564303937629142</v>
+        <v>0.979148606207854</v>
       </c>
       <c r="D14">
-        <v>0.9848826731475621</v>
+        <v>1.007270038097524</v>
       </c>
       <c r="E14">
-        <v>0.9704627363547732</v>
+        <v>0.9900030204354408</v>
       </c>
       <c r="F14">
-        <v>0.9188100793868599</v>
+        <v>1.007479988263848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030810565026695</v>
+        <v>1.042119767693677</v>
       </c>
       <c r="J14">
-        <v>0.9877736051798875</v>
+        <v>1.00945224739494</v>
       </c>
       <c r="K14">
-        <v>1.000112775938353</v>
+        <v>1.022072932988789</v>
       </c>
       <c r="L14">
-        <v>0.9859817729257078</v>
+        <v>1.005133180200578</v>
       </c>
       <c r="M14">
-        <v>0.9354639743283478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.022278993932114</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027484128090521</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026746743244739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1083,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9571114959967008</v>
+        <v>0.9796972781634166</v>
       </c>
       <c r="D15">
-        <v>0.9853925491636805</v>
+        <v>1.007649227635034</v>
       </c>
       <c r="E15">
-        <v>0.9710034525918853</v>
+        <v>0.9904367398244012</v>
       </c>
       <c r="F15">
-        <v>0.9198724772865582</v>
+        <v>1.007978738445482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031021929050408</v>
+        <v>1.042266434694838</v>
       </c>
       <c r="J15">
-        <v>0.9882214628949542</v>
+        <v>1.009783395680131</v>
       </c>
       <c r="K15">
-        <v>1.000521807421898</v>
+        <v>1.022357184001121</v>
       </c>
       <c r="L15">
-        <v>0.9864186297235812</v>
+        <v>1.005468342405076</v>
       </c>
       <c r="M15">
-        <v>0.9364006616282712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.022680639477965</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027839446384552</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026953660453456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1133,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9610237376909314</v>
+        <v>0.9824824273263374</v>
       </c>
       <c r="D16">
-        <v>0.9883221472017455</v>
+        <v>1.009557371231293</v>
       </c>
       <c r="E16">
-        <v>0.974112731938939</v>
+        <v>0.9925954479974187</v>
       </c>
       <c r="F16">
-        <v>0.9259594912171101</v>
+        <v>1.009826471508797</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032230104143718</v>
+        <v>1.042965817391465</v>
       </c>
       <c r="J16">
-        <v>0.9907918443445125</v>
+        <v>1.011329652943065</v>
       </c>
       <c r="K16">
-        <v>1.002868190901547</v>
+        <v>1.023720004940096</v>
       </c>
       <c r="L16">
-        <v>0.988927561272923</v>
+        <v>1.007062618274305</v>
       </c>
       <c r="M16">
-        <v>0.9417668426446412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.023984380588149</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028830857590069</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027920441963619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1183,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9634335608040423</v>
+        <v>0.9840617696949474</v>
       </c>
       <c r="D17">
-        <v>0.9901273478236299</v>
+        <v>1.010635227165098</v>
       </c>
       <c r="E17">
-        <v>0.9760308666987524</v>
+        <v>0.9938025365174095</v>
       </c>
       <c r="F17">
-        <v>0.9296963946282355</v>
+        <v>1.010549207308134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032969062301338</v>
+        <v>1.043341441601999</v>
       </c>
       <c r="J17">
-        <v>0.9923732652985894</v>
+        <v>1.012146515494021</v>
       </c>
       <c r="K17">
-        <v>1.004310723445686</v>
+        <v>1.024459317017956</v>
       </c>
       <c r="L17">
-        <v>0.99047263217661</v>
+        <v>1.007920109366076</v>
       </c>
       <c r="M17">
-        <v>0.945060628388779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.024374764838746</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029009191136156</v>
+      </c>
+      <c r="Q17">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R17">
+        <v>1.028445786617791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1233,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9648238508601984</v>
+        <v>0.9847068648347188</v>
       </c>
       <c r="D18">
-        <v>0.9911690083943921</v>
+        <v>1.011062601797104</v>
       </c>
       <c r="E18">
-        <v>0.9771385065004203</v>
+        <v>0.9942589722982177</v>
       </c>
       <c r="F18">
-        <v>0.9318481710026776</v>
+        <v>1.010198791354776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033393472486927</v>
+        <v>1.043457602764377</v>
       </c>
       <c r="J18">
-        <v>0.9932849560574264</v>
+        <v>1.012360343712441</v>
       </c>
       <c r="K18">
-        <v>1.005141937469517</v>
+        <v>1.024693073956532</v>
       </c>
       <c r="L18">
-        <v>0.9913638831603255</v>
+        <v>1.008177544700493</v>
       </c>
       <c r="M18">
-        <v>0.9469570058655097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.023843772300653</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028349143068687</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028599304625308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1283,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9652953614264468</v>
+        <v>0.9844736766388721</v>
       </c>
       <c r="D19">
-        <v>0.9915223116353499</v>
+        <v>1.010885458263239</v>
       </c>
       <c r="E19">
-        <v>0.9775143273585207</v>
+        <v>0.9940079580336919</v>
       </c>
       <c r="F19">
-        <v>0.9325772661159785</v>
+        <v>1.008766696401167</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033537081956697</v>
+        <v>1.043333604951161</v>
       </c>
       <c r="J19">
-        <v>0.993594037333779</v>
+        <v>1.011998218076154</v>
       </c>
       <c r="K19">
-        <v>1.005423664500574</v>
+        <v>1.024455353036941</v>
       </c>
       <c r="L19">
-        <v>0.9916661217667931</v>
+        <v>1.007865826152318</v>
       </c>
       <c r="M19">
-        <v>0.9475995188974685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.022372060760336</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026855591718572</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028437687965968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1333,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9631766075651621</v>
+        <v>0.981771490063295</v>
       </c>
       <c r="D20">
-        <v>0.9899348429174203</v>
+        <v>1.008996771543964</v>
       </c>
       <c r="E20">
-        <v>0.9758262345528279</v>
+        <v>0.991768007835246</v>
       </c>
       <c r="F20">
-        <v>0.9292983762107034</v>
+        <v>1.004428029146319</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032890467286126</v>
+        <v>1.042530764707803</v>
       </c>
       <c r="J20">
-        <v>0.992204712188323</v>
+        <v>1.010023636321451</v>
       </c>
       <c r="K20">
-        <v>1.004157015393687</v>
+        <v>1.022883247039653</v>
       </c>
       <c r="L20">
-        <v>0.9903078995813595</v>
+        <v>1.005957168004956</v>
       </c>
       <c r="M20">
-        <v>0.9447098311703547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.018393461321534</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023171029468919</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027330097776216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1383,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561039238865362</v>
+        <v>0.9763425193725636</v>
       </c>
       <c r="D21">
-        <v>0.9846382937611114</v>
+        <v>1.005270458149789</v>
       </c>
       <c r="E21">
-        <v>0.970203619310037</v>
+        <v>0.9875144109608882</v>
       </c>
       <c r="F21">
-        <v>0.9183005548864893</v>
+        <v>1.00016506773375</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030709148389555</v>
+        <v>1.041130662632146</v>
       </c>
       <c r="J21">
-        <v>0.9875588978629518</v>
+        <v>1.006863766120645</v>
       </c>
       <c r="K21">
-        <v>0.9999166622813572</v>
+        <v>1.020152663344818</v>
       </c>
       <c r="L21">
-        <v>0.9857723700858967</v>
+        <v>1.002736251398085</v>
       </c>
       <c r="M21">
-        <v>0.9350147314656512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.015143313531246</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.020557023914743</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025402708247964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1433,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.951505235250057</v>
+        <v>0.972897131285142</v>
       </c>
       <c r="D22">
-        <v>0.9811972317316475</v>
+        <v>1.00290569181103</v>
       </c>
       <c r="E22">
-        <v>0.9665579327262542</v>
+        <v>0.9848282656582759</v>
       </c>
       <c r="F22">
-        <v>0.9111027324887995</v>
+        <v>0.9975974008620432</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029273658694874</v>
+        <v>1.040230288974062</v>
       </c>
       <c r="J22">
-        <v>0.9845319961228659</v>
+        <v>1.004874772026914</v>
       </c>
       <c r="K22">
-        <v>0.9971506098328011</v>
+        <v>1.018419805314674</v>
       </c>
       <c r="L22">
-        <v>0.9828223257630722</v>
+        <v>1.000706390441495</v>
       </c>
       <c r="M22">
-        <v>0.9286679793219254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.013216604439026</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019032117336125</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024163797337167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1483,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.953958195324336</v>
+        <v>0.9747227703034212</v>
       </c>
       <c r="D23">
-        <v>0.9830323989117624</v>
+        <v>1.004154042080487</v>
       </c>
       <c r="E23">
-        <v>0.9685015687538071</v>
+        <v>0.986249065844142</v>
       </c>
       <c r="F23">
-        <v>0.9149469380856879</v>
+        <v>0.9989594853388182</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030040937454181</v>
+        <v>1.040705790183844</v>
       </c>
       <c r="J23">
-        <v>0.9861471347821513</v>
+        <v>1.005925628535323</v>
       </c>
       <c r="K23">
-        <v>0.9986268481873268</v>
+        <v>1.019332738356708</v>
       </c>
       <c r="L23">
-        <v>0.9843959742744623</v>
+        <v>1.001778686394705</v>
       </c>
       <c r="M23">
-        <v>0.9320577503737545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.014238293090882</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019840739970625</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024799531887799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1533,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.963292760868634</v>
+        <v>0.9817525998534453</v>
       </c>
       <c r="D24">
-        <v>0.990021862367117</v>
+        <v>1.008973487971141</v>
       </c>
       <c r="E24">
-        <v>0.9759187334445582</v>
+        <v>0.9917402904648156</v>
       </c>
       <c r="F24">
-        <v>0.9294783094760634</v>
+        <v>1.00422546503306</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032926001375484</v>
+        <v>1.042510695925067</v>
       </c>
       <c r="J24">
-        <v>0.9922809071307329</v>
+        <v>1.009971624851599</v>
       </c>
       <c r="K24">
-        <v>1.004226500852998</v>
+        <v>1.022844830596522</v>
       </c>
       <c r="L24">
-        <v>0.9903823658476876</v>
+        <v>1.005914025289234</v>
       </c>
       <c r="M24">
-        <v>0.9448684177852076</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.018178780894047</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.022959457479316</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027275212122939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1583,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9735292441948016</v>
+        <v>0.9895791665521919</v>
       </c>
       <c r="D25">
-        <v>0.997693643673093</v>
+        <v>1.01434706512878</v>
       </c>
       <c r="E25">
-        <v>0.9840912318241681</v>
+        <v>0.9978870158732845</v>
       </c>
       <c r="F25">
-        <v>0.9452579767907751</v>
+        <v>1.01013778993702</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036016259385497</v>
+        <v>1.044454567434296</v>
       </c>
       <c r="J25">
-        <v>0.9989815166427347</v>
+        <v>1.014462395700021</v>
       </c>
       <c r="K25">
-        <v>1.010327868672724</v>
+        <v>1.026726670338626</v>
       </c>
       <c r="L25">
-        <v>0.9969416354625417</v>
+        <v>1.010518221995824</v>
       </c>
       <c r="M25">
-        <v>0.9587700162505028</v>
+        <v>1.022580742112234</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026443393266879</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030017032340059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
@@ -433,46 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955518510829319</v>
+        <v>1.027282850743869</v>
       </c>
       <c r="D2">
-        <v>1.018436764373923</v>
+        <v>1.045077908192801</v>
       </c>
       <c r="E2">
-        <v>1.00259770937966</v>
+        <v>1.039890977238446</v>
       </c>
       <c r="F2">
-        <v>1.014695319609722</v>
+        <v>1.05037450969808</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045873034729254</v>
+        <v>1.061685164893576</v>
       </c>
       <c r="J2">
-        <v>1.017866424402663</v>
+        <v>1.048677070695515</v>
       </c>
       <c r="K2">
-        <v>1.029645084949986</v>
+        <v>1.055943024282219</v>
       </c>
       <c r="L2">
-        <v>1.014020972232261</v>
+        <v>1.050821193302105</v>
       </c>
       <c r="M2">
-        <v>1.025953652317756</v>
+        <v>1.061173975133009</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029112873782036</v>
+        <v>1.056987304183476</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032031813108484</v>
+        <v>1.050626725482033</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -483,46 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9997729101694764</v>
+        <v>1.030714993408252</v>
       </c>
       <c r="D3">
-        <v>1.02133563615753</v>
+        <v>1.047406404018881</v>
       </c>
       <c r="E3">
-        <v>1.005942568358711</v>
+        <v>1.042527639900425</v>
       </c>
       <c r="F3">
-        <v>1.017931973860598</v>
+        <v>1.052873056306918</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046848064326415</v>
+        <v>1.062639211168974</v>
       </c>
       <c r="J3">
-        <v>1.020269767797677</v>
+        <v>1.050401972072161</v>
       </c>
       <c r="K3">
-        <v>1.031702611934458</v>
+        <v>1.057466620109193</v>
       </c>
       <c r="L3">
-        <v>1.016499973414699</v>
+        <v>1.052643819893255</v>
       </c>
       <c r="M3">
-        <v>1.028340439939343</v>
+        <v>1.06287132404875</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031001884053241</v>
+        <v>1.058330611041389</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033484003301374</v>
+        <v>1.051701383114798</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -533,46 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0024474726116</v>
+        <v>1.032900677926914</v>
       </c>
       <c r="D4">
-        <v>1.023172637424306</v>
+        <v>1.048892975494948</v>
       </c>
       <c r="E4">
-        <v>1.008067826688774</v>
+        <v>1.044212248964646</v>
       </c>
       <c r="F4">
-        <v>1.019991812494888</v>
+        <v>1.054469900986062</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047450391781518</v>
+        <v>1.063238511449093</v>
       </c>
       <c r="J4">
-        <v>1.021788778319061</v>
+        <v>1.051498647657273</v>
       </c>
       <c r="K4">
-        <v>1.032999207685622</v>
+        <v>1.058435053857965</v>
       </c>
       <c r="L4">
-        <v>1.018069845673936</v>
+        <v>1.053804820730922</v>
       </c>
       <c r="M4">
-        <v>1.029854796039017</v>
+        <v>1.063952534357801</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032200410412029</v>
+        <v>1.059186295533143</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034401726785758</v>
+        <v>1.052387007564008</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -583,46 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003561818895321</v>
+        <v>1.033814481615235</v>
       </c>
       <c r="D5">
-        <v>1.023939823016302</v>
+        <v>1.049517180182152</v>
       </c>
       <c r="E5">
-        <v>1.008955141725943</v>
+        <v>1.044918363725769</v>
       </c>
       <c r="F5">
-        <v>1.02085111014809</v>
+        <v>1.055139423462031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047698885020955</v>
+        <v>1.063488506215807</v>
       </c>
       <c r="J5">
-        <v>1.022421983190703</v>
+        <v>1.051958190743389</v>
       </c>
       <c r="K5">
-        <v>1.033540073888974</v>
+        <v>1.058842009471167</v>
       </c>
       <c r="L5">
-        <v>1.018724754385804</v>
+        <v>1.054291497606407</v>
       </c>
       <c r="M5">
-        <v>1.030485769879861</v>
+        <v>1.064405896378355</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032699789561453</v>
+        <v>1.059545092097677</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034791392285146</v>
+        <v>1.052681800089741</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -633,46 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003751931420737</v>
+        <v>1.033971251410143</v>
       </c>
       <c r="D6">
-        <v>1.024072906228227</v>
+        <v>1.049626531821381</v>
       </c>
       <c r="E6">
-        <v>1.009107161717266</v>
+        <v>1.045040193297665</v>
       </c>
       <c r="F6">
-        <v>1.020996555789739</v>
+        <v>1.055255045919875</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047742654325316</v>
+        <v>1.063533039254328</v>
       </c>
       <c r="J6">
-        <v>1.022531489458228</v>
+        <v>1.052038811566715</v>
       </c>
       <c r="K6">
-        <v>1.033635156453616</v>
+        <v>1.058914869611149</v>
       </c>
       <c r="L6">
-        <v>1.018837775309238</v>
+        <v>1.054376486541798</v>
       </c>
       <c r="M6">
-        <v>1.030592918831001</v>
+        <v>1.064485225866705</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032784591697921</v>
+        <v>1.059607874463252</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034867430213378</v>
+        <v>1.052741914256825</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -683,46 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002472501677231</v>
+        <v>1.032923169136974</v>
       </c>
       <c r="D7">
-        <v>1.023195707711558</v>
+        <v>1.048914254418626</v>
       </c>
       <c r="E7">
-        <v>1.008089269874676</v>
+        <v>1.044231280034593</v>
       </c>
       <c r="F7">
-        <v>1.020007686102174</v>
+        <v>1.054488197467569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047460239153006</v>
+        <v>1.063249394117521</v>
       </c>
       <c r="J7">
-        <v>1.021807103761084</v>
+        <v>1.051514814689016</v>
       </c>
       <c r="K7">
-        <v>1.033019104616677</v>
+        <v>1.058453288921297</v>
       </c>
       <c r="L7">
-        <v>1.018088066166843</v>
+        <v>1.053820813034395</v>
       </c>
       <c r="M7">
-        <v>1.029867564763687</v>
+        <v>1.063967841203616</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.03221051611956</v>
+        <v>1.059198409571544</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034436052966463</v>
+        <v>1.052419676323228</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -733,46 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9970028067978784</v>
+        <v>1.028462965287019</v>
       </c>
       <c r="D8">
-        <v>1.019440139049605</v>
+        <v>1.045885047909384</v>
       </c>
       <c r="E8">
-        <v>1.003748211605218</v>
+        <v>1.040798540966457</v>
       </c>
       <c r="F8">
-        <v>1.015801835351732</v>
+        <v>1.051234680572694</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046216412898622</v>
+        <v>1.062020675401923</v>
       </c>
       <c r="J8">
-        <v>1.018698309938877</v>
+        <v>1.049276545053316</v>
       </c>
       <c r="K8">
-        <v>1.030363065776079</v>
+        <v>1.056477378805239</v>
       </c>
       <c r="L8">
-        <v>1.014877649234979</v>
+        <v>1.051452836653157</v>
       </c>
       <c r="M8">
-        <v>1.026771931788859</v>
+        <v>1.06176264376079</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029760497263569</v>
+        <v>1.057453185446851</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032562595244357</v>
+        <v>1.051027081226183</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -783,46 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9868928683666496</v>
+        <v>1.020307509185027</v>
       </c>
       <c r="D9">
-        <v>1.012493999391878</v>
+        <v>1.04036756204014</v>
       </c>
       <c r="E9">
-        <v>0.9957706354604702</v>
+        <v>1.034563865900522</v>
       </c>
       <c r="F9">
-        <v>1.008107267684897</v>
+        <v>1.045329173154358</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043790374519024</v>
+        <v>1.059702643078461</v>
       </c>
       <c r="J9">
-        <v>1.012917117496502</v>
+        <v>1.045162988476234</v>
       </c>
       <c r="K9">
-        <v>1.025387571057945</v>
+        <v>1.052837976861351</v>
       </c>
       <c r="L9">
-        <v>1.008932705887794</v>
+        <v>1.047119998335263</v>
       </c>
       <c r="M9">
-        <v>1.021070165436422</v>
+        <v>1.057727264285677</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025247848137877</v>
+        <v>1.054259519332773</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029041311944202</v>
+        <v>1.04845073848241</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -833,46 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9799375626893344</v>
+        <v>1.014722235199253</v>
       </c>
       <c r="D10">
-        <v>1.007727768295072</v>
+        <v>1.036628958510163</v>
       </c>
       <c r="E10">
-        <v>0.9903315593532538</v>
+        <v>1.030348422297823</v>
       </c>
       <c r="F10">
-        <v>1.003110142748991</v>
+        <v>1.041368587187422</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042059495209011</v>
+        <v>1.058094784846564</v>
       </c>
       <c r="J10">
-        <v>1.008970417179653</v>
+        <v>1.042363675533513</v>
       </c>
       <c r="K10">
-        <v>1.021958883345937</v>
+        <v>1.050366927505688</v>
       </c>
       <c r="L10">
-        <v>1.004877602645111</v>
+        <v>1.044190525380285</v>
       </c>
       <c r="M10">
-        <v>1.017423468750646</v>
+        <v>1.055029039318327</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022414124264041</v>
+        <v>1.052174689430191</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026633956176898</v>
+        <v>1.04672015938587</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -883,46 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9777982905263617</v>
+        <v>1.012678577125056</v>
       </c>
       <c r="D11">
-        <v>1.006299794487927</v>
+        <v>1.035396951358946</v>
       </c>
       <c r="E11">
-        <v>0.9887761004800797</v>
+        <v>1.028990618717737</v>
       </c>
       <c r="F11">
-        <v>1.003526025037098</v>
+        <v>1.040328770906746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041620809093094</v>
+        <v>1.057655207797901</v>
       </c>
       <c r="J11">
-        <v>1.008124769561503</v>
+        <v>1.04153326151443</v>
       </c>
       <c r="K11">
-        <v>1.021103875844843</v>
+        <v>1.049680842463542</v>
       </c>
       <c r="L11">
-        <v>1.003912833254742</v>
+        <v>1.043385768479533</v>
       </c>
       <c r="M11">
-        <v>1.018381750635338</v>
+        <v>1.054528216595424</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023616333060578</v>
+        <v>1.052207755494834</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02606265369461</v>
+        <v>1.046267433719308</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -933,46 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.977309079724096</v>
+        <v>1.012060615056891</v>
       </c>
       <c r="D12">
-        <v>1.005985389613142</v>
+        <v>1.035076091379867</v>
       </c>
       <c r="E12">
-        <v>0.9884753232810868</v>
+        <v>1.028657062579703</v>
       </c>
       <c r="F12">
-        <v>1.004552147817884</v>
+        <v>1.040189046371307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041565318503798</v>
+        <v>1.057584968613889</v>
       </c>
       <c r="J12">
-        <v>1.008105803215832</v>
+        <v>1.041363175700092</v>
       </c>
       <c r="K12">
-        <v>1.020998810422932</v>
+        <v>1.049560789821922</v>
       </c>
       <c r="L12">
-        <v>1.003826699471292</v>
+        <v>1.04325508924932</v>
       </c>
       <c r="M12">
-        <v>1.019592652439411</v>
+        <v>1.054584770021884</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024905299466438</v>
+        <v>1.052574273159004</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02598836735092</v>
+        <v>1.046182554977286</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -983,46 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9780664843107391</v>
+        <v>1.012513764166417</v>
       </c>
       <c r="D13">
-        <v>1.006519565880199</v>
+        <v>1.035453084457836</v>
       </c>
       <c r="E13">
-        <v>0.9891267281575757</v>
+        <v>1.029104041083035</v>
       </c>
       <c r="F13">
-        <v>1.006141313010721</v>
+        <v>1.040753526204231</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041813155554241</v>
+        <v>1.057809848612113</v>
       </c>
       <c r="J13">
-        <v>1.008732880901389</v>
+        <v>1.041707080687719</v>
       </c>
       <c r="K13">
-        <v>1.02147930016024</v>
+        <v>1.049889320325347</v>
       </c>
       <c r="L13">
-        <v>1.004420505020438</v>
+        <v>1.043651880729819</v>
       </c>
       <c r="M13">
-        <v>1.021108151483558</v>
+        <v>1.055097939082982</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026383579150415</v>
+        <v>1.053253245274318</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026325574659292</v>
+        <v>1.046412375055394</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1033,46 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.979148606207854</v>
+        <v>1.013317511618392</v>
       </c>
       <c r="D14">
-        <v>1.007270038097524</v>
+        <v>1.036034932244587</v>
       </c>
       <c r="E14">
-        <v>0.9900030204354408</v>
+        <v>1.029771296938472</v>
       </c>
       <c r="F14">
-        <v>1.007479988263848</v>
+        <v>1.041468797829311</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042119767693677</v>
+        <v>1.05810156225134</v>
       </c>
       <c r="J14">
-        <v>1.00945224739494</v>
+        <v>1.042181451068661</v>
       </c>
       <c r="K14">
-        <v>1.022072932988789</v>
+        <v>1.050323962230738</v>
       </c>
       <c r="L14">
-        <v>1.005133180200578</v>
+        <v>1.044169055214114</v>
       </c>
       <c r="M14">
-        <v>1.022278993932114</v>
+        <v>1.055664871018639</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027484128090521</v>
+        <v>1.053872836240061</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026746743244739</v>
+        <v>1.046721075653165</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1083,46 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9796972781634166</v>
+        <v>1.01375195386957</v>
       </c>
       <c r="D15">
-        <v>1.007649227635034</v>
+        <v>1.036336308597117</v>
       </c>
       <c r="E15">
-        <v>0.9904367398244012</v>
+        <v>1.030111541604399</v>
       </c>
       <c r="F15">
-        <v>1.007978738445482</v>
+        <v>1.041808266104675</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042266434694838</v>
+        <v>1.058242012662959</v>
       </c>
       <c r="J15">
-        <v>1.009783395680131</v>
+        <v>1.042415919856792</v>
       </c>
       <c r="K15">
-        <v>1.022357184001121</v>
+        <v>1.050535726928648</v>
       </c>
       <c r="L15">
-        <v>1.005468342405076</v>
+        <v>1.044418192632681</v>
       </c>
       <c r="M15">
-        <v>1.022680639477965</v>
+        <v>1.055914785424241</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027839446384552</v>
+        <v>1.054107535002875</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026953660453456</v>
+        <v>1.046876577843842</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1133,46 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9824824273263374</v>
+        <v>1.016032240531882</v>
       </c>
       <c r="D16">
-        <v>1.009557371231293</v>
+        <v>1.037853911861552</v>
       </c>
       <c r="E16">
-        <v>0.9925954479974187</v>
+        <v>1.031815411855451</v>
       </c>
       <c r="F16">
-        <v>1.009826471508797</v>
+        <v>1.043400846037933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042965817391465</v>
+        <v>1.058899152128312</v>
       </c>
       <c r="J16">
-        <v>1.011329652943065</v>
+        <v>1.043549101140148</v>
       </c>
       <c r="K16">
-        <v>1.023720004940096</v>
+        <v>1.051536986719528</v>
       </c>
       <c r="L16">
-        <v>1.007062618274305</v>
+        <v>1.045597982262535</v>
       </c>
       <c r="M16">
-        <v>1.023984380588149</v>
+        <v>1.056993827264063</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028830857590069</v>
+        <v>1.054922091615015</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027920441963619</v>
+        <v>1.047587602783179</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1183,46 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9840617696949474</v>
+        <v>1.01736202844736</v>
       </c>
       <c r="D17">
-        <v>1.010635227165098</v>
+        <v>1.038714398375822</v>
       </c>
       <c r="E17">
-        <v>0.9938025365174095</v>
+        <v>1.032774181160857</v>
       </c>
       <c r="F17">
-        <v>1.010549207308134</v>
+        <v>1.044245075558334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043341441601999</v>
+        <v>1.059247742837289</v>
       </c>
       <c r="J17">
-        <v>1.012146515494021</v>
+        <v>1.044168979828586</v>
       </c>
       <c r="K17">
-        <v>1.024459317017956</v>
+        <v>1.052076046187749</v>
       </c>
       <c r="L17">
-        <v>1.007920109366076</v>
+        <v>1.046230968133663</v>
       </c>
       <c r="M17">
-        <v>1.024374764838746</v>
+        <v>1.057519388269994</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029009191136156</v>
+        <v>1.055209876304553</v>
       </c>
       <c r="Q17">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028445786617791</v>
+        <v>1.047971275638888</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1233,46 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9847068648347188</v>
+        <v>1.017984988715606</v>
       </c>
       <c r="D18">
-        <v>1.011062601797104</v>
+        <v>1.039068236984178</v>
       </c>
       <c r="E18">
-        <v>0.9942589722982177</v>
+        <v>1.033157935494765</v>
       </c>
       <c r="F18">
-        <v>1.010198791354776</v>
+        <v>1.044487835282401</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043457602764377</v>
+        <v>1.059350583481351</v>
       </c>
       <c r="J18">
-        <v>1.012360343712441</v>
+        <v>1.044385349864473</v>
       </c>
       <c r="K18">
-        <v>1.024693073956532</v>
+        <v>1.052245036082366</v>
       </c>
       <c r="L18">
-        <v>1.008177544700493</v>
+        <v>1.046427854592634</v>
       </c>
       <c r="M18">
-        <v>1.023843772300653</v>
+        <v>1.057580428453998</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028349143068687</v>
+        <v>1.055023373867861</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028599304625308</v>
+        <v>1.0480792973169</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1283,46 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9844736766388721</v>
+        <v>1.017977798730018</v>
       </c>
       <c r="D19">
-        <v>1.010885458263239</v>
+        <v>1.038977368370251</v>
       </c>
       <c r="E19">
-        <v>0.9940079580336919</v>
+        <v>1.033028549781184</v>
       </c>
       <c r="F19">
-        <v>1.008766696401167</v>
+        <v>1.044193047354516</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043333604951161</v>
+        <v>1.059240783658107</v>
       </c>
       <c r="J19">
-        <v>1.011998218076154</v>
+        <v>1.044247655162051</v>
       </c>
       <c r="K19">
-        <v>1.024455353036941</v>
+        <v>1.05209446548987</v>
       </c>
       <c r="L19">
-        <v>1.007865826152318</v>
+        <v>1.046238901107925</v>
       </c>
       <c r="M19">
-        <v>1.022372060760336</v>
+        <v>1.057229498756722</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026855591718572</v>
+        <v>1.054424973438333</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028437687965968</v>
+        <v>1.047979138469413</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1333,46 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.981771490063295</v>
+        <v>1.016195011787852</v>
       </c>
       <c r="D20">
-        <v>1.008996771543964</v>
+        <v>1.037628336430282</v>
       </c>
       <c r="E20">
-        <v>0.991768007835246</v>
+        <v>1.03146338394867</v>
       </c>
       <c r="F20">
-        <v>1.004428029146319</v>
+        <v>1.042417833835914</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042530764707803</v>
+        <v>1.058533805470363</v>
       </c>
       <c r="J20">
-        <v>1.010023636321451</v>
+        <v>1.043115607800631</v>
       </c>
       <c r="K20">
-        <v>1.022883247039653</v>
+        <v>1.051040304237594</v>
       </c>
       <c r="L20">
-        <v>1.005957168004956</v>
+        <v>1.044974664602791</v>
       </c>
       <c r="M20">
-        <v>1.018393461321534</v>
+        <v>1.055753684496939</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023171029468919</v>
+        <v>1.052737782655684</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027330097776216</v>
+        <v>1.047237688385022</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1383,46 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9763425193725636</v>
+        <v>1.011927673393178</v>
       </c>
       <c r="D21">
-        <v>1.005270458149789</v>
+        <v>1.034752534141194</v>
       </c>
       <c r="E21">
-        <v>0.9875144109608882</v>
+        <v>1.028219425742155</v>
       </c>
       <c r="F21">
-        <v>1.00016506773375</v>
+        <v>1.039324952841483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041130662632146</v>
+        <v>1.057259158041999</v>
       </c>
       <c r="J21">
-        <v>1.006863766120645</v>
+        <v>1.040935031779822</v>
       </c>
       <c r="K21">
-        <v>1.020152663344818</v>
+        <v>1.049104122309348</v>
       </c>
       <c r="L21">
-        <v>1.002736251398085</v>
+        <v>1.04268519417947</v>
       </c>
       <c r="M21">
-        <v>1.015143313531246</v>
+        <v>1.053597731578639</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020557023914743</v>
+        <v>1.050991324852413</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025402708247964</v>
+        <v>1.045871952372198</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1433,46 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.972897131285142</v>
+        <v>1.009212434890456</v>
       </c>
       <c r="D22">
-        <v>1.00290569181103</v>
+        <v>1.032930352001203</v>
       </c>
       <c r="E22">
-        <v>0.9848282656582759</v>
+        <v>1.026171795679587</v>
       </c>
       <c r="F22">
-        <v>0.9975974008620432</v>
+        <v>1.037388132967794</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040230288974062</v>
+        <v>1.056445327288113</v>
       </c>
       <c r="J22">
-        <v>1.004874772026914</v>
+        <v>1.039553543461658</v>
       </c>
       <c r="K22">
-        <v>1.018419805314674</v>
+        <v>1.047876511263076</v>
       </c>
       <c r="L22">
-        <v>1.000706390441495</v>
+        <v>1.041242022389038</v>
       </c>
       <c r="M22">
-        <v>1.013216604439026</v>
+        <v>1.052253610169267</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019032117336125</v>
+        <v>1.049927557313221</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024163797337167</v>
+        <v>1.044990692799494</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1483,46 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9747227703034212</v>
+        <v>1.010646876911522</v>
       </c>
       <c r="D23">
-        <v>1.004154042080487</v>
+        <v>1.033887335921687</v>
       </c>
       <c r="E23">
-        <v>0.986249065844142</v>
+        <v>1.027251088673686</v>
       </c>
       <c r="F23">
-        <v>0.9989594853388182</v>
+        <v>1.038408927014323</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040705790183844</v>
+        <v>1.056872126168749</v>
       </c>
       <c r="J23">
-        <v>1.005925628535323</v>
+        <v>1.040279160600458</v>
       </c>
       <c r="K23">
-        <v>1.019332738356708</v>
+        <v>1.048518115939978</v>
       </c>
       <c r="L23">
-        <v>1.001778686394705</v>
+        <v>1.042000585192951</v>
       </c>
       <c r="M23">
-        <v>1.014238293090882</v>
+        <v>1.052959946042449</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019840739970625</v>
+        <v>1.050486567401276</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024799531887799</v>
+        <v>1.045434827000087</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1533,46 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9817525998534453</v>
+        <v>1.016209319134977</v>
       </c>
       <c r="D24">
-        <v>1.008973487971141</v>
+        <v>1.037617414857343</v>
       </c>
       <c r="E24">
-        <v>0.9917402904648156</v>
+        <v>1.031454298767878</v>
       </c>
       <c r="F24">
-        <v>1.00422546503306</v>
+        <v>1.042385772363296</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042510695925067</v>
+        <v>1.058516670996097</v>
       </c>
       <c r="J24">
-        <v>1.009971624851599</v>
+        <v>1.043097372356762</v>
       </c>
       <c r="K24">
-        <v>1.022844830596522</v>
+        <v>1.05101463238068</v>
       </c>
       <c r="L24">
-        <v>1.005914025289234</v>
+        <v>1.044950675272406</v>
       </c>
       <c r="M24">
-        <v>1.018178780894047</v>
+        <v>1.055707301294818</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
       </c>
       <c r="O24">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P24">
-        <v>1.022959457479316</v>
+        <v>1.052660882138555</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027275212122939</v>
+        <v>1.047192544104872</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1583,46 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9895791665521919</v>
+        <v>1.022466904864163</v>
       </c>
       <c r="D25">
-        <v>1.01434706512878</v>
+        <v>1.04183374684258</v>
       </c>
       <c r="E25">
-        <v>0.9978870158732845</v>
+        <v>1.036212034272417</v>
       </c>
       <c r="F25">
-        <v>1.01013778993702</v>
+        <v>1.046890038319997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044454567434296</v>
+        <v>1.060330802016629</v>
       </c>
       <c r="J25">
-        <v>1.014462395700021</v>
+        <v>1.046261123360104</v>
       </c>
       <c r="K25">
-        <v>1.026726670338626</v>
+        <v>1.053815590674881</v>
       </c>
       <c r="L25">
-        <v>1.010518221995824</v>
+        <v>1.048273059287308</v>
       </c>
       <c r="M25">
-        <v>1.022580742112234</v>
+        <v>1.058801580810883</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026443393266879</v>
+        <v>1.055109752522665</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030017032340059</v>
+        <v>1.049170089335544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027282850743869</v>
+        <v>1.025468724143324</v>
       </c>
       <c r="D2">
-        <v>1.045077908192801</v>
+        <v>1.042488122564048</v>
       </c>
       <c r="E2">
-        <v>1.039890977238446</v>
+        <v>1.038272386494635</v>
       </c>
       <c r="F2">
-        <v>1.05037450969808</v>
+        <v>1.04860781481619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.061685164893576</v>
+        <v>1.06023543502139</v>
       </c>
       <c r="J2">
-        <v>1.048677070695515</v>
+        <v>1.046913468221436</v>
       </c>
       <c r="K2">
-        <v>1.055943024282219</v>
+        <v>1.053385641476634</v>
       </c>
       <c r="L2">
-        <v>1.050821193302105</v>
+        <v>1.049223083338632</v>
       </c>
       <c r="M2">
-        <v>1.061173975133009</v>
+        <v>1.059429086420455</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056987304183476</v>
+        <v>1.05560637117327</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050626725482033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04882712831733</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026125336130392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030714993408252</v>
+        <v>1.028800805823691</v>
       </c>
       <c r="D3">
-        <v>1.047406404018881</v>
+        <v>1.044673433490588</v>
       </c>
       <c r="E3">
-        <v>1.042527639900425</v>
+        <v>1.040815682053361</v>
       </c>
       <c r="F3">
-        <v>1.052873056306918</v>
+        <v>1.05100846086902</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.062639211168974</v>
+        <v>1.061107136932268</v>
       </c>
       <c r="J3">
-        <v>1.050401972072161</v>
+        <v>1.048535978638813</v>
       </c>
       <c r="K3">
-        <v>1.057466620109193</v>
+        <v>1.054764919768278</v>
       </c>
       <c r="L3">
-        <v>1.052643819893255</v>
+        <v>1.050951653426677</v>
       </c>
       <c r="M3">
-        <v>1.06287132404875</v>
+        <v>1.061027769038842</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.058330611041389</v>
+        <v>1.056871594423298</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051701383114798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04979947092453</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026397908128794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032900677926914</v>
+        <v>1.030923252874242</v>
       </c>
       <c r="D4">
-        <v>1.048892975494948</v>
+        <v>1.046069137597054</v>
       </c>
       <c r="E4">
-        <v>1.044212248964646</v>
+        <v>1.04244124083687</v>
       </c>
       <c r="F4">
-        <v>1.054469900986062</v>
+        <v>1.05254328194273</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.063238511449093</v>
+        <v>1.061654102640203</v>
       </c>
       <c r="J4">
-        <v>1.051498647657273</v>
+        <v>1.049567703986913</v>
       </c>
       <c r="K4">
-        <v>1.058435053857965</v>
+        <v>1.055641611851763</v>
       </c>
       <c r="L4">
-        <v>1.053804820730922</v>
+        <v>1.052053062474081</v>
       </c>
       <c r="M4">
-        <v>1.063952534357801</v>
+        <v>1.062046364154544</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059186295533143</v>
+        <v>1.05767772596028</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052387007564008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050420312742528</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026568947431882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033814481615235</v>
+        <v>1.031810726732244</v>
       </c>
       <c r="D5">
-        <v>1.049517180182152</v>
+        <v>1.046655481512901</v>
       </c>
       <c r="E5">
-        <v>1.044918363725769</v>
+        <v>1.043122755194524</v>
       </c>
       <c r="F5">
-        <v>1.055139423462031</v>
+        <v>1.053186964027407</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.063488506215807</v>
+        <v>1.061882262667124</v>
       </c>
       <c r="J5">
-        <v>1.051958190743389</v>
+        <v>1.05000015502465</v>
       </c>
       <c r="K5">
-        <v>1.058842009471167</v>
+        <v>1.056010308241597</v>
       </c>
       <c r="L5">
-        <v>1.054291497606407</v>
+        <v>1.052514891063414</v>
       </c>
       <c r="M5">
-        <v>1.064405896378355</v>
+        <v>1.062473616416114</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059545092097677</v>
+        <v>1.058015859591484</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052681800089741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05068876638818</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02664086545645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033971251410143</v>
+        <v>1.031962983792989</v>
       </c>
       <c r="D6">
-        <v>1.049626531821381</v>
+        <v>1.046758409964123</v>
       </c>
       <c r="E6">
-        <v>1.045040193297665</v>
+        <v>1.043240360513565</v>
       </c>
       <c r="F6">
-        <v>1.055255045919875</v>
+        <v>1.053298177358254</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.063533039254328</v>
+        <v>1.061923077340684</v>
       </c>
       <c r="J6">
-        <v>1.052038811566715</v>
+        <v>1.050076134790249</v>
       </c>
       <c r="K6">
-        <v>1.058914869611149</v>
+        <v>1.056076677124271</v>
       </c>
       <c r="L6">
-        <v>1.054376486541798</v>
+        <v>1.052595613958794</v>
       </c>
       <c r="M6">
-        <v>1.064485225866705</v>
+        <v>1.062548491093582</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059607874463252</v>
+        <v>1.058075116480917</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052741914256825</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050745160808525</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026654416234118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032923169136974</v>
+        <v>1.030945077512943</v>
       </c>
       <c r="D7">
-        <v>1.048914254418626</v>
+        <v>1.046089657447375</v>
       </c>
       <c r="E7">
-        <v>1.044231280034593</v>
+        <v>1.042459627999238</v>
       </c>
       <c r="F7">
-        <v>1.054488197467569</v>
+        <v>1.052560985191799</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.063249394117521</v>
+        <v>1.061664511136277</v>
       </c>
       <c r="J7">
-        <v>1.051514814689016</v>
+        <v>1.049583200575321</v>
       </c>
       <c r="K7">
-        <v>1.058453288921297</v>
+        <v>1.05565908443502</v>
       </c>
       <c r="L7">
-        <v>1.053820813034395</v>
+        <v>1.052068410623598</v>
       </c>
       <c r="M7">
-        <v>1.063967841203616</v>
+        <v>1.062061076430977</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.059198409571544</v>
+        <v>1.057689369471525</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052419676323228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050454443774624</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026574072662977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028462965287019</v>
+        <v>1.026614249753806</v>
       </c>
       <c r="D8">
-        <v>1.045885047909384</v>
+        <v>1.043246134171802</v>
       </c>
       <c r="E8">
-        <v>1.040798540966457</v>
+        <v>1.039147655653429</v>
       </c>
       <c r="F8">
-        <v>1.051234680572694</v>
+        <v>1.049434263675322</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062020675401923</v>
+        <v>1.060542655836078</v>
       </c>
       <c r="J8">
-        <v>1.049276545053316</v>
+        <v>1.047477622430886</v>
       </c>
       <c r="K8">
-        <v>1.056477378805239</v>
+        <v>1.053870519076018</v>
       </c>
       <c r="L8">
-        <v>1.051452836653157</v>
+        <v>1.049822224959783</v>
       </c>
       <c r="M8">
-        <v>1.06176264376079</v>
+        <v>1.059983798884402</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.057453185446851</v>
+        <v>1.056045379816073</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051027081226183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049194772697958</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026223736182356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020307509185027</v>
+        <v>1.018699646725456</v>
       </c>
       <c r="D9">
-        <v>1.04036756204014</v>
+        <v>1.038070641666228</v>
       </c>
       <c r="E9">
-        <v>1.034563865900522</v>
+        <v>1.033137371074839</v>
       </c>
       <c r="F9">
-        <v>1.045329173154358</v>
+        <v>1.043763336215131</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059702643078461</v>
+        <v>1.058420890752417</v>
       </c>
       <c r="J9">
-        <v>1.045162988476234</v>
+        <v>1.043608923717242</v>
       </c>
       <c r="K9">
-        <v>1.052837976861351</v>
+        <v>1.050574835253321</v>
       </c>
       <c r="L9">
-        <v>1.047119998335263</v>
+        <v>1.045714759639977</v>
       </c>
       <c r="M9">
-        <v>1.057727264285677</v>
+        <v>1.05618415783662</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.054259519332773</v>
+        <v>1.053038275795775</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04845073848241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046861167242644</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025558112830798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014722235199253</v>
+        <v>1.013279119676965</v>
       </c>
       <c r="D10">
-        <v>1.036628958510163</v>
+        <v>1.034565059753045</v>
       </c>
       <c r="E10">
-        <v>1.030348422297823</v>
+        <v>1.029074728390692</v>
       </c>
       <c r="F10">
-        <v>1.041368587187422</v>
+        <v>1.039962799388827</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.058094784846564</v>
+        <v>1.056946112386143</v>
       </c>
       <c r="J10">
-        <v>1.042363675533513</v>
+        <v>1.040975610157349</v>
       </c>
       <c r="K10">
-        <v>1.050366927505688</v>
+        <v>1.048337069602537</v>
       </c>
       <c r="L10">
-        <v>1.044190525380285</v>
+        <v>1.042938149716548</v>
       </c>
       <c r="M10">
-        <v>1.055029039318327</v>
+        <v>1.053646148534872</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.052174689430191</v>
+        <v>1.051080306756552</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04672015938587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045297208215411</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02510096039743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012678577125056</v>
+        <v>1.011268094461186</v>
       </c>
       <c r="D11">
-        <v>1.035396951358946</v>
+        <v>1.033392306282117</v>
       </c>
       <c r="E11">
-        <v>1.028990618717737</v>
+        <v>1.027745458699547</v>
       </c>
       <c r="F11">
-        <v>1.040328770906746</v>
+        <v>1.038960034679019</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.057655207797901</v>
+        <v>1.056538502697653</v>
       </c>
       <c r="J11">
-        <v>1.04153326151443</v>
+        <v>1.040179506235465</v>
       </c>
       <c r="K11">
-        <v>1.049680842463542</v>
+        <v>1.047710820153875</v>
       </c>
       <c r="L11">
-        <v>1.043385768479533</v>
+        <v>1.042162441770809</v>
       </c>
       <c r="M11">
-        <v>1.054528216595424</v>
+        <v>1.053182812821206</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.052207755494834</v>
+        <v>1.051143558283184</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046267433719308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044890012019527</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025016780675144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012060615056891</v>
+        <v>1.010647290355566</v>
       </c>
       <c r="D12">
-        <v>1.035076091379867</v>
+        <v>1.033077454389677</v>
       </c>
       <c r="E12">
-        <v>1.028657062579703</v>
+        <v>1.027407963150902</v>
       </c>
       <c r="F12">
-        <v>1.040189046371307</v>
+        <v>1.038821689593339</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.057584968613889</v>
+        <v>1.056470354609672</v>
       </c>
       <c r="J12">
-        <v>1.041363175700092</v>
+        <v>1.040007774724348</v>
       </c>
       <c r="K12">
-        <v>1.049560789821922</v>
+        <v>1.047597243135486</v>
       </c>
       <c r="L12">
-        <v>1.04325508924932</v>
+        <v>1.042028256433269</v>
       </c>
       <c r="M12">
-        <v>1.054584770021884</v>
+        <v>1.053241096728766</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.052574273159004</v>
+        <v>1.051511794690256</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046182554977286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044809712993805</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025025589820916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012513764166417</v>
+        <v>1.011069423513692</v>
       </c>
       <c r="D13">
-        <v>1.035453084457836</v>
+        <v>1.033419090639437</v>
       </c>
       <c r="E13">
-        <v>1.029104041083035</v>
+        <v>1.027825185565348</v>
       </c>
       <c r="F13">
-        <v>1.040753526204231</v>
+        <v>1.039359634604222</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.057809848612113</v>
+        <v>1.056674029283565</v>
       </c>
       <c r="J13">
-        <v>1.041707080687719</v>
+        <v>1.040321646636843</v>
       </c>
       <c r="K13">
-        <v>1.049889320325347</v>
+        <v>1.047890886716373</v>
       </c>
       <c r="L13">
-        <v>1.043651880729819</v>
+        <v>1.042395721499206</v>
       </c>
       <c r="M13">
-        <v>1.055097939082982</v>
+        <v>1.053728077376497</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.053253245274318</v>
+        <v>1.052170324864035</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046412375055394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045014620712178</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025114058959578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013317511618392</v>
+        <v>1.01183903639431</v>
       </c>
       <c r="D14">
-        <v>1.036034932244587</v>
+        <v>1.033957681853127</v>
       </c>
       <c r="E14">
-        <v>1.029771296938472</v>
+        <v>1.028460258438292</v>
       </c>
       <c r="F14">
-        <v>1.041468797829311</v>
+        <v>1.04004393568359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05810156225134</v>
+        <v>1.056940504990802</v>
       </c>
       <c r="J14">
-        <v>1.042181451068661</v>
+        <v>1.040762421674772</v>
       </c>
       <c r="K14">
-        <v>1.050323962230738</v>
+        <v>1.048282581220331</v>
       </c>
       <c r="L14">
-        <v>1.044169055214114</v>
+        <v>1.042880991784387</v>
       </c>
       <c r="M14">
-        <v>1.055664871018639</v>
+        <v>1.054264262547285</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.053872836240061</v>
+        <v>1.052765756344011</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046721075653165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045293091361353</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025212440636494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01375195386957</v>
+        <v>1.012258583414012</v>
       </c>
       <c r="D15">
-        <v>1.036336308597117</v>
+        <v>1.034238998272667</v>
       </c>
       <c r="E15">
-        <v>1.030111541604399</v>
+        <v>1.028786616945532</v>
       </c>
       <c r="F15">
-        <v>1.041808266104675</v>
+        <v>1.040369397540071</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.058242012662959</v>
+        <v>1.057069414234548</v>
       </c>
       <c r="J15">
-        <v>1.042415919856792</v>
+        <v>1.040982075888542</v>
       </c>
       <c r="K15">
-        <v>1.050535726928648</v>
+        <v>1.048474360116719</v>
       </c>
       <c r="L15">
-        <v>1.044418192632681</v>
+        <v>1.043116309019366</v>
       </c>
       <c r="M15">
-        <v>1.055914785424241</v>
+        <v>1.054500222746757</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.054107535002875</v>
+        <v>1.052989454347005</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046876577843842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045435034107072</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025256226124756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016032240531882</v>
+        <v>1.014474859859589</v>
       </c>
       <c r="D16">
-        <v>1.037853911861552</v>
+        <v>1.035664077598975</v>
       </c>
       <c r="E16">
-        <v>1.031815411855451</v>
+        <v>1.03043160547223</v>
       </c>
       <c r="F16">
-        <v>1.043400846037933</v>
+        <v>1.041899163657306</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058899152128312</v>
+        <v>1.057674109812647</v>
       </c>
       <c r="J16">
-        <v>1.043549101140148</v>
+        <v>1.042050734162135</v>
       </c>
       <c r="K16">
-        <v>1.051536986719528</v>
+        <v>1.049383061602985</v>
       </c>
       <c r="L16">
-        <v>1.045597982262535</v>
+        <v>1.044237188219946</v>
       </c>
       <c r="M16">
-        <v>1.056993827264063</v>
+        <v>1.05551641371345</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.054922091615015</v>
+        <v>1.053754300391139</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047587602783179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046080918519259</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025440911793783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01736202844736</v>
+        <v>1.015773357069478</v>
       </c>
       <c r="D17">
-        <v>1.038714398375822</v>
+        <v>1.036476280820636</v>
       </c>
       <c r="E17">
-        <v>1.032774181160857</v>
+        <v>1.03136192736478</v>
       </c>
       <c r="F17">
-        <v>1.044245075558334</v>
+        <v>1.042711370767865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.059247742837289</v>
+        <v>1.057995650858858</v>
       </c>
       <c r="J17">
-        <v>1.044168979828586</v>
+        <v>1.042638597892574</v>
       </c>
       <c r="K17">
-        <v>1.052076046187749</v>
+        <v>1.049873610419142</v>
       </c>
       <c r="L17">
-        <v>1.046230968133663</v>
+        <v>1.044841540166108</v>
       </c>
       <c r="M17">
-        <v>1.057519388269994</v>
+        <v>1.056009783449937</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.055209876304553</v>
+        <v>1.054016523382066</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047971275638888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046430541401903</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025530069738369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017984988715606</v>
+        <v>1.016391809063651</v>
       </c>
       <c r="D18">
-        <v>1.039068236984178</v>
+        <v>1.036817087266847</v>
       </c>
       <c r="E18">
-        <v>1.033157935494765</v>
+        <v>1.031742310639336</v>
       </c>
       <c r="F18">
-        <v>1.044487835282401</v>
+        <v>1.042946923043197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059350583481351</v>
+        <v>1.05809186820148</v>
       </c>
       <c r="J18">
-        <v>1.044385349864473</v>
+        <v>1.042849542958433</v>
       </c>
       <c r="K18">
-        <v>1.052245036082366</v>
+        <v>1.050029194269487</v>
       </c>
       <c r="L18">
-        <v>1.046427854592634</v>
+        <v>1.045034736613198</v>
       </c>
       <c r="M18">
-        <v>1.057580428453998</v>
+        <v>1.056063344091107</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.055023373867861</v>
+        <v>1.053823863907375</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.0480792973169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046527946715053</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025538688164076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017977798730018</v>
+        <v>1.016404092234594</v>
       </c>
       <c r="D19">
-        <v>1.038977368370251</v>
+        <v>1.036745035584877</v>
       </c>
       <c r="E19">
-        <v>1.033028549781184</v>
+        <v>1.031631994513683</v>
       </c>
       <c r="F19">
-        <v>1.044193047354516</v>
+        <v>1.042667269874382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.059240783658107</v>
+        <v>1.057993885953895</v>
       </c>
       <c r="J19">
-        <v>1.044247655162051</v>
+        <v>1.042730289917748</v>
       </c>
       <c r="K19">
-        <v>1.05209446548987</v>
+        <v>1.049896966520247</v>
       </c>
       <c r="L19">
-        <v>1.046238901107925</v>
+        <v>1.044864437994826</v>
       </c>
       <c r="M19">
-        <v>1.057229498756722</v>
+        <v>1.055727206513106</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.054424973438333</v>
+        <v>1.053236781350269</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047979138469413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046441382846941</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025480251794293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016195011787852</v>
+        <v>1.014707582097155</v>
       </c>
       <c r="D20">
-        <v>1.037628336430282</v>
+        <v>1.035502788995782</v>
       </c>
       <c r="E20">
-        <v>1.03146338394867</v>
+        <v>1.030148549282418</v>
       </c>
       <c r="F20">
-        <v>1.042417833835914</v>
+        <v>1.040969343581303</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.058533805470363</v>
+        <v>1.057349805812172</v>
       </c>
       <c r="J20">
-        <v>1.043115607800631</v>
+        <v>1.041683091625752</v>
       </c>
       <c r="K20">
-        <v>1.051040304237594</v>
+        <v>1.048948826460759</v>
       </c>
       <c r="L20">
-        <v>1.044974664602791</v>
+        <v>1.043681208537391</v>
       </c>
       <c r="M20">
-        <v>1.055753684496939</v>
+        <v>1.054328119759448</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.052737782655684</v>
+        <v>1.051609615783001</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047237688385022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045775282982924</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025231228650221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011927673393178</v>
+        <v>1.010572698081209</v>
       </c>
       <c r="D21">
-        <v>1.034752534141194</v>
+        <v>1.032810725265883</v>
       </c>
       <c r="E21">
-        <v>1.028219425742155</v>
+        <v>1.027027490927855</v>
       </c>
       <c r="F21">
-        <v>1.039324952841483</v>
+        <v>1.038003631881452</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.057259158041999</v>
+        <v>1.05618027419558</v>
       </c>
       <c r="J21">
-        <v>1.040935031779822</v>
+        <v>1.039634934742581</v>
       </c>
       <c r="K21">
-        <v>1.049104122309348</v>
+        <v>1.047196055432661</v>
       </c>
       <c r="L21">
-        <v>1.04268519417947</v>
+        <v>1.041514294227394</v>
       </c>
       <c r="M21">
-        <v>1.053597731578639</v>
+        <v>1.052299092466072</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.050991324852413</v>
+        <v>1.049963553037939</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045871952372198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044539552898131</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024859822637198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009212434890456</v>
+        <v>1.007941176551287</v>
       </c>
       <c r="D22">
-        <v>1.032930352001203</v>
+        <v>1.031104371108921</v>
       </c>
       <c r="E22">
-        <v>1.026171795679587</v>
+        <v>1.025057313811317</v>
       </c>
       <c r="F22">
-        <v>1.037388132967794</v>
+        <v>1.036147090149181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.056445327288113</v>
+        <v>1.05543257943488</v>
       </c>
       <c r="J22">
-        <v>1.039553543461658</v>
+        <v>1.038336737498889</v>
       </c>
       <c r="K22">
-        <v>1.047876511263076</v>
+        <v>1.046083841302579</v>
       </c>
       <c r="L22">
-        <v>1.041242022389038</v>
+        <v>1.040148204113234</v>
       </c>
       <c r="M22">
-        <v>1.052253610169267</v>
+        <v>1.051034938517113</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.049927557313221</v>
+        <v>1.048963072187157</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044990692799494</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043738577210124</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024622849072553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010646876911522</v>
+        <v>1.00933151455231</v>
       </c>
       <c r="D23">
-        <v>1.033887335921687</v>
+        <v>1.032000108791602</v>
       </c>
       <c r="E23">
-        <v>1.027251088673686</v>
+        <v>1.026095853329914</v>
       </c>
       <c r="F23">
-        <v>1.038408927014323</v>
+        <v>1.037125534651339</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.056872126168749</v>
+        <v>1.055824474335971</v>
       </c>
       <c r="J23">
-        <v>1.040279160600458</v>
+        <v>1.039018504614495</v>
       </c>
       <c r="K23">
-        <v>1.048518115939978</v>
+        <v>1.046664447927084</v>
       </c>
       <c r="L23">
-        <v>1.042000585192951</v>
+        <v>1.040866220034083</v>
       </c>
       <c r="M23">
-        <v>1.052959946042449</v>
+        <v>1.051699101129893</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.050486567401276</v>
+        <v>1.049488706100896</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.045434827000087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044138637654475</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02474532134748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016209319134977</v>
+        <v>1.014724379001913</v>
       </c>
       <c r="D24">
-        <v>1.037617414857343</v>
+        <v>1.035493743483558</v>
       </c>
       <c r="E24">
-        <v>1.031454298767878</v>
+        <v>1.030141957476242</v>
       </c>
       <c r="F24">
-        <v>1.042385772363296</v>
+        <v>1.040939062220597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.058516670996097</v>
+        <v>1.057333982717512</v>
       </c>
       <c r="J24">
-        <v>1.043097372356762</v>
+        <v>1.041667174803963</v>
       </c>
       <c r="K24">
-        <v>1.05101463238068</v>
+        <v>1.048924958004581</v>
       </c>
       <c r="L24">
-        <v>1.044950675272406</v>
+        <v>1.043659645188157</v>
       </c>
       <c r="M24">
-        <v>1.055707301294818</v>
+        <v>1.05428346107667</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.052660882138555</v>
+        <v>1.051534025826095</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047192544104872</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045728734117974</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025219702903673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022466904864163</v>
+        <v>1.020794528168168</v>
       </c>
       <c r="D25">
-        <v>1.04183374684258</v>
+        <v>1.039446069517223</v>
       </c>
       <c r="E25">
-        <v>1.036212034272417</v>
+        <v>1.034725464356782</v>
       </c>
       <c r="F25">
-        <v>1.046890038319997</v>
+        <v>1.045261672567482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060330802016629</v>
+        <v>1.058996960148029</v>
       </c>
       <c r="J25">
-        <v>1.046261123360104</v>
+        <v>1.044641782053917</v>
       </c>
       <c r="K25">
-        <v>1.053815590674881</v>
+        <v>1.051461411320323</v>
       </c>
       <c r="L25">
-        <v>1.048273059287308</v>
+        <v>1.046807609490735</v>
       </c>
       <c r="M25">
-        <v>1.058801580810883</v>
+        <v>1.057195761770997</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.055109752522665</v>
+        <v>1.053838878444591</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049170089335544</v>
+        <v>1.047518961819036</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025741809030691</v>
       </c>
     </row>
   </sheetData>
